--- a/WDIW_FDataset.xlsx
+++ b/WDIW_FDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/Documents/ES_Africa_T3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C45B63-F624-C24D-AF2C-EC796A7AE328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E10B3-4F8F-9E44-839E-63395AA1FD9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1988,8 +1988,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BO217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/WDIW_FDataset.xlsx
+++ b/WDIW_FDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/Documents/ES_Africa_T3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E10B3-4F8F-9E44-839E-63395AA1FD9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E649B92-84E0-BD49-8518-193F28EF5CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,9 +759,6 @@
     <t>SLB</t>
   </si>
   <si>
-    <t>SOM</t>
-  </si>
-  <si>
     <t>ZAF</t>
   </si>
   <si>
@@ -1615,6 +1612,9 @@
   </si>
   <si>
     <t>Sentinel Prime</t>
+  </si>
+  <si>
+    <t>fSM</t>
   </si>
 </sst>
 </file>
@@ -1988,8 +1988,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BO217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2070,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E2">
         <v>97.7</v>
@@ -2410,13 +2410,13 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -2544,13 +2544,13 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2678,13 +2678,13 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AC5">
         <v>634000000</v>
@@ -2728,13 +2728,13 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2791,138 +2791,144 @@
         <v>-0.49526514097238189</v>
       </c>
     </row>
-    <row r="7" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E7">
-        <v>41.88623046875</v>
+        <v>84.4</v>
+      </c>
+      <c r="F7">
+        <v>66.885808984159496</v>
       </c>
       <c r="G7">
-        <v>72.722190856933594</v>
+        <v>93.48291015625</v>
       </c>
       <c r="H7">
-        <v>150.52600000000001</v>
+        <v>67.908000000000001</v>
       </c>
       <c r="I7">
-        <v>96.820227826760828</v>
+        <v>52.368039896373439</v>
       </c>
       <c r="J7">
-        <v>4.4071942930432773</v>
+        <v>7.9523592213316991</v>
       </c>
       <c r="K7">
-        <v>92.413033533717552</v>
+        <v>44.415680675041749</v>
       </c>
       <c r="L7">
-        <v>10.01699585995552</v>
+        <v>2.3612363731227082</v>
       </c>
       <c r="M7">
-        <v>0.95156199715133238</v>
+        <v>0.35633718513044133</v>
       </c>
       <c r="N7">
-        <v>41.280999999999999</v>
+        <v>20.908000000000001</v>
       </c>
       <c r="P7">
-        <v>8.4320000000000004</v>
+        <v>9.4979999999999993</v>
       </c>
       <c r="Y7">
-        <v>49.266998291015597</v>
+        <v>5.2220001220703098</v>
       </c>
       <c r="Z7">
-        <v>8.2480001449584996</v>
+        <v>23.301000595092798</v>
       </c>
       <c r="AA7">
-        <v>42.484001159667997</v>
+        <v>71.476997375488295</v>
       </c>
       <c r="AB7">
-        <v>5.6</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AC7">
-        <v>122123822333.5905</v>
+        <v>349268114386.87543</v>
       </c>
       <c r="AD7">
-        <v>-0.14720742624703581</v>
+        <v>1.4145126258505769</v>
+      </c>
+      <c r="AF7">
+        <v>18.727439880371101</v>
       </c>
       <c r="AL7">
-        <v>42.167953327576832</v>
+        <v>26.29313910863015</v>
       </c>
       <c r="AM7">
-        <v>60.378999999999998</v>
+        <v>63.537999999999997</v>
       </c>
       <c r="AP7">
-        <v>40.186262649020641</v>
+        <v>54.427241471414249</v>
       </c>
       <c r="AQ7">
-        <v>2.4211128376509699</v>
+        <v>1.04366339589233</v>
       </c>
       <c r="AR7">
-        <v>44.686107139999997</v>
+        <v>155.23239570000001</v>
       </c>
       <c r="AS7">
-        <v>0.61396393751492728</v>
+        <v>0.33833008577203144</v>
       </c>
       <c r="AT7">
-        <v>46.953016299621503</v>
+        <v>29.1502598257042</v>
       </c>
       <c r="AU7">
-        <v>50.807787135600101</v>
+        <v>65.630561548097106</v>
       </c>
       <c r="AV7">
-        <v>2.2391965647783501</v>
+        <v>5.2191786261986497</v>
       </c>
       <c r="AW7">
-        <v>23.91653806047967</v>
+        <v>46.987817062213033</v>
       </c>
       <c r="AX7">
-        <v>3.3220809981560899</v>
+        <v>1.4077407504275301</v>
       </c>
       <c r="AY7">
-        <v>38.873383641062077</v>
+        <v>14.156365358789611</v>
       </c>
       <c r="AZ7">
-        <v>0.41890706496633356</v>
+        <v>0.31570113050111104</v>
       </c>
       <c r="BA7">
-        <v>15067439</v>
+        <v>28883601</v>
       </c>
       <c r="BB7">
-        <v>14749309</v>
+        <v>28116850</v>
       </c>
       <c r="BC7">
-        <v>29816748</v>
+        <v>57000451</v>
       </c>
       <c r="BG7">
-        <v>2</v>
+        <v>20.5</v>
       </c>
       <c r="BH7">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="BJ7">
-        <v>35.161000000000001</v>
+        <v>34.150000000000013</v>
       </c>
       <c r="BK7">
-        <v>46.762624335817279</v>
+        <v>61.025589121835047</v>
       </c>
       <c r="BL7">
-        <v>1246700</v>
+        <v>1219090</v>
       </c>
       <c r="BM7">
-        <v>9.2237774537182489</v>
+        <v>26.966066814489881</v>
       </c>
       <c r="BN7">
-        <v>64.838999999999999</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="BO7">
-        <v>4.3919572788704198</v>
+        <v>2.1837113539144211</v>
       </c>
     </row>
     <row r="8" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -2930,13 +2936,13 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3040,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -3204,13 +3210,13 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3368,13 +3374,13 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -3463,13 +3469,13 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -3600,13 +3606,13 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3734,13 +3740,13 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -3868,13 +3874,13 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -3996,13 +4002,13 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4127,13 +4133,13 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E17">
         <v>88</v>
@@ -4267,13 +4273,13 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -4389,13 +4395,13 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -4550,13 +4556,13 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -4684,13 +4690,13 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E21">
         <v>98.265121459960895</v>
@@ -4821,13 +4827,13 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E22">
         <v>43.077747344970703</v>
@@ -4955,13 +4961,13 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -5017,13 +5023,13 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E24">
         <v>97.7</v>
@@ -5172,13 +5178,13 @@
         <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E25">
         <v>91.8</v>
@@ -5333,13 +5339,13 @@
         <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -5467,136 +5473,136 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E27">
-        <v>62.824947357177699</v>
-      </c>
-      <c r="F27">
-        <v>24.264212331170999</v>
+        <v>41.88623046875</v>
       </c>
       <c r="G27">
-        <v>80.393379211425795</v>
+        <v>72.722190856933594</v>
       </c>
       <c r="H27">
-        <v>46.061</v>
+        <v>150.52600000000001</v>
       </c>
       <c r="I27">
-        <v>62.669557417150337</v>
+        <v>96.820227826760828</v>
       </c>
       <c r="J27">
-        <v>6.6480376043458644</v>
+        <v>4.4071942930432773</v>
       </c>
       <c r="K27">
-        <v>56.021519812804478</v>
+        <v>92.413033533717552</v>
       </c>
       <c r="L27">
-        <v>1.9897542016293319</v>
+        <v>10.01699585995552</v>
       </c>
       <c r="M27">
-        <v>0.86468787649951284</v>
+        <v>0.95156199715133238</v>
       </c>
       <c r="N27">
-        <v>25.396000000000001</v>
+        <v>41.280999999999999</v>
       </c>
       <c r="P27">
-        <v>5.8339999999999996</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="Y27">
-        <v>23.173999786376999</v>
+        <v>49.266998291015597</v>
       </c>
       <c r="Z27">
-        <v>18.054000854492202</v>
+        <v>8.2480001449584996</v>
       </c>
       <c r="AA27">
-        <v>58.771999359130902</v>
+        <v>42.484001159667997</v>
       </c>
       <c r="AB27">
-        <v>2.91</v>
+        <v>5.6</v>
       </c>
       <c r="AC27">
-        <v>17406565823.298611</v>
+        <v>122123822333.5905</v>
       </c>
       <c r="AD27">
-        <v>2.9075349102435548</v>
+        <v>-0.14720742624703581</v>
       </c>
       <c r="AL27">
-        <v>29.833487721114562</v>
+        <v>42.167953327576832</v>
       </c>
       <c r="AM27">
-        <v>68.811999999999998</v>
+        <v>60.378999999999998</v>
       </c>
       <c r="AP27">
-        <v>64.573334649131723</v>
+        <v>40.186262649020641</v>
       </c>
       <c r="AQ27">
-        <v>3.0216559053007002</v>
+        <v>2.4211128376509699</v>
       </c>
       <c r="AR27">
-        <v>146.96015560000001</v>
+        <v>44.686107139999997</v>
       </c>
       <c r="AS27">
-        <v>0.34459366209630388</v>
+        <v>0.61396393751492728</v>
       </c>
       <c r="AT27">
-        <v>34.438841221180198</v>
+        <v>46.953016299621503</v>
       </c>
       <c r="AU27">
-        <v>61.474322927059298</v>
+        <v>50.807787135600101</v>
       </c>
       <c r="AV27">
-        <v>4.0868358517604797</v>
+        <v>2.2391965647783501</v>
       </c>
       <c r="AW27">
-        <v>3.8909674801051648</v>
+        <v>23.91653806047967</v>
       </c>
       <c r="AX27">
-        <v>2.0703261666535999</v>
+        <v>3.3220809981560899</v>
+      </c>
+      <c r="AY27">
+        <v>38.873383641062077</v>
       </c>
       <c r="AZ27">
-        <v>0.46292535797692835</v>
+        <v>0.41890706496633356</v>
       </c>
       <c r="BA27">
-        <v>1142634</v>
+        <v>15067439</v>
       </c>
       <c r="BB27">
-        <v>1062494</v>
+        <v>14749309</v>
       </c>
       <c r="BC27">
-        <v>2205128</v>
+        <v>29816748</v>
       </c>
       <c r="BG27">
-        <v>20.7</v>
+        <v>2</v>
       </c>
       <c r="BH27">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="BJ27">
-        <v>31.3</v>
+        <v>35.161000000000001</v>
       </c>
       <c r="BK27">
-        <v>59.11298896352335</v>
+        <v>46.762624335817279</v>
       </c>
       <c r="BL27">
-        <v>581730</v>
+        <v>1246700</v>
       </c>
       <c r="BM27">
-        <v>22.144133743568929</v>
+        <v>9.2237774537182489</v>
       </c>
       <c r="BN27">
-        <v>68.7</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="BO27">
-        <v>3.1930412549843621</v>
+        <v>4.3919572788704198</v>
       </c>
     </row>
     <row r="28" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -5604,13 +5610,13 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -5768,13 +5774,13 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -5821,13 +5827,13 @@
         <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -5949,13 +5955,13 @@
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -6089,13 +6095,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32">
         <v>25.4737434387207</v>
@@ -6223,130 +6229,139 @@
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E33">
-        <v>9.3000000000000007</v>
+        <v>44.3</v>
       </c>
       <c r="F33">
-        <v>1.65840932053429</v>
+        <v>30.970686141327899</v>
       </c>
       <c r="G33">
-        <v>61.8</v>
+        <v>96.6</v>
       </c>
       <c r="H33">
-        <v>55.59</v>
+        <v>66.727000000000004</v>
       </c>
       <c r="I33">
-        <v>91.359180934326318</v>
+        <v>80.958230427534815</v>
       </c>
       <c r="J33">
-        <v>4.1845654943770354</v>
+        <v>6.3115155806363301</v>
       </c>
       <c r="K33">
-        <v>87.174615439949278</v>
+        <v>74.64671484689849</v>
+      </c>
+      <c r="L33">
+        <v>33.66027363995822</v>
       </c>
       <c r="M33">
-        <v>0.665781821149526</v>
+        <v>0.2751135566092493</v>
       </c>
       <c r="N33">
-        <v>39.646000000000001</v>
-      </c>
-      <c r="O33">
-        <v>85.1</v>
+        <v>32.774999999999999</v>
       </c>
       <c r="P33">
-        <v>8.1059999999999999</v>
+        <v>6.6909999999999998</v>
       </c>
       <c r="Y33">
-        <v>91.860000610351605</v>
+        <v>67.074996948242202</v>
       </c>
       <c r="Z33">
-        <v>2.1340000629425</v>
+        <v>11.442999839782701</v>
       </c>
       <c r="AA33">
-        <v>6.0060000419616699</v>
+        <v>21.482000350952099</v>
       </c>
       <c r="AB33">
-        <v>5.5019999999999998</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AC33">
-        <v>3172416146.3921041</v>
+        <v>81716326730.81897</v>
       </c>
       <c r="AD33">
-        <v>0.50000999877946128</v>
-      </c>
-      <c r="AF33">
-        <v>20.401369094848601</v>
+        <v>9.503858571095904</v>
+      </c>
+      <c r="AL33">
+        <v>23.581851667126859</v>
       </c>
       <c r="AM33">
-        <v>60.898000000000003</v>
+        <v>65.872</v>
       </c>
       <c r="AP33">
-        <v>29.22063049812207</v>
+        <v>23.46042800375869</v>
       </c>
       <c r="AQ33">
-        <v>1.8706521963616201</v>
+        <v>0.67666221118451897</v>
       </c>
       <c r="AR33">
-        <v>54.683676089999999</v>
+        <v>37.218071700000003</v>
       </c>
       <c r="AS33">
-        <v>0.31903271140690775</v>
+        <v>0.3852584776112053</v>
       </c>
       <c r="AT33">
-        <v>45.555494083828599</v>
+        <v>41.250798261848402</v>
       </c>
       <c r="AU33">
-        <v>52.257745183600399</v>
+        <v>55.2613712393253</v>
       </c>
       <c r="AV33">
-        <v>2.1867607325709901</v>
+        <v>3.4878304988263</v>
       </c>
       <c r="AW33">
-        <v>421.61308411214952</v>
+        <v>106.400024</v>
       </c>
       <c r="AX33">
-        <v>3.1813675239571402</v>
+        <v>2.6634679780737498</v>
       </c>
       <c r="AY33">
-        <v>61.542347722802212</v>
+        <v>19.509464320544641</v>
       </c>
       <c r="AZ33">
-        <v>0.63528267572837649</v>
+        <v>0.60885082701861393</v>
       </c>
       <c r="BA33">
-        <v>5461521</v>
+        <v>53185250</v>
       </c>
       <c r="BB33">
-        <v>5365503</v>
+        <v>53214774</v>
       </c>
       <c r="BC33">
-        <v>10827024</v>
+        <v>106400024</v>
       </c>
       <c r="BG33">
         <v>1.1000000000000001</v>
       </c>
+      <c r="BH33">
+        <v>20.6</v>
+      </c>
       <c r="BJ33">
-        <v>87.293999999999997</v>
+        <v>79.69</v>
+      </c>
+      <c r="BK33">
+        <v>36.63829202304543</v>
       </c>
       <c r="BL33">
-        <v>27830</v>
+        <v>1104300</v>
+      </c>
+      <c r="BM33">
+        <v>7.6048918806272559</v>
       </c>
       <c r="BN33">
-        <v>12.706</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="BO33">
-        <v>5.7160124223008628</v>
+        <v>4.8738309519568084</v>
       </c>
     </row>
     <row r="34" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -6354,13 +6369,13 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E34">
         <v>89.07</v>
@@ -6491,13 +6506,13 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E35">
         <v>61.4018745422363</v>
@@ -6631,13 +6646,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -6756,13 +6771,13 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E37">
         <v>92.913635253906307</v>
@@ -6893,13 +6908,13 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -6967,13 +6982,13 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39">
         <v>29.982038497924801</v>
@@ -7101,13 +7116,13 @@
         <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E40">
         <v>10.876416206359901</v>
@@ -7235,13 +7250,13 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -7399,13 +7414,13 @@
         <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -7533,13 +7548,13 @@
         <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E43">
         <v>99.595237731933594</v>
@@ -7700,13 +7715,13 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E44">
         <v>79.931289672851605</v>
@@ -7822,13 +7837,13 @@
         <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45">
         <v>19.093631744384801</v>
@@ -7950,136 +7965,142 @@
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E46">
-        <v>66.214851379394503</v>
+        <v>63.811470031738303</v>
       </c>
       <c r="F46">
-        <v>24.180856490540702</v>
+        <v>57.570480323442602</v>
       </c>
       <c r="G46">
-        <v>87.428863525390597</v>
+        <v>81.066413879394503</v>
       </c>
       <c r="H46">
-        <v>112.229</v>
+        <v>75.078000000000003</v>
       </c>
       <c r="I46">
-        <v>80.464234324102435</v>
+        <v>74.234598444569883</v>
       </c>
       <c r="J46">
-        <v>4.7699573619117386</v>
+        <v>3.9309149202577438</v>
       </c>
       <c r="K46">
-        <v>75.694276962190699</v>
+        <v>70.303683524312149</v>
       </c>
       <c r="L46">
-        <v>6.3983042981243843</v>
+        <v>34.828737464117253</v>
       </c>
       <c r="M46">
-        <v>0.58330578833777291</v>
+        <v>0.14598648175247</v>
       </c>
       <c r="N46">
-        <v>33.378</v>
+        <v>29.295999999999999</v>
       </c>
       <c r="P46">
-        <v>6.8280000000000003</v>
+        <v>5.5819999999999999</v>
       </c>
       <c r="Y46">
-        <v>35.992000579833999</v>
+        <v>57.833999633789098</v>
       </c>
       <c r="Z46">
-        <v>22.268999099731399</v>
+        <v>7.5219998359680202</v>
       </c>
       <c r="AA46">
-        <v>41.738998413085902</v>
+        <v>34.644001007080099</v>
       </c>
       <c r="AB46">
-        <v>4.4820000000000002</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="AC46">
-        <v>8701334800.2197571</v>
+        <v>78757391333.008804</v>
       </c>
       <c r="AD46">
-        <v>-3.100000000000009</v>
+        <v>4.8625382212681814</v>
+      </c>
+      <c r="AF46">
+        <v>17.582279205322301</v>
       </c>
       <c r="AL46">
-        <v>53.522343628825283</v>
+        <v>16.844131720303</v>
       </c>
       <c r="AM46">
-        <v>63.954000000000001</v>
+        <v>65.909000000000006</v>
       </c>
       <c r="AP46">
-        <v>112.8907256821323</v>
+        <v>28.484945501994371</v>
       </c>
       <c r="AQ46">
-        <v>4.2682968306850899</v>
+        <v>1.2873742711420499</v>
       </c>
       <c r="AR46">
-        <v>98.929793309999994</v>
+        <v>85.253156930000003</v>
       </c>
       <c r="AS46">
-        <v>0.38246212246376671</v>
+        <v>0.33404534254514145</v>
       </c>
       <c r="AT46">
-        <v>41.9441974134633</v>
+        <v>40.350012351371902</v>
       </c>
       <c r="AU46">
-        <v>55.412639572504297</v>
+        <v>57.3938820427461</v>
       </c>
       <c r="AV46">
-        <v>2.6431630140323401</v>
+        <v>2.2561056058820799</v>
       </c>
       <c r="AW46">
-        <v>14.965452415812591</v>
+        <v>88.240982886460273</v>
       </c>
       <c r="AX46">
-        <v>2.5706299142737401</v>
+        <v>2.3568125733826402</v>
       </c>
       <c r="AY46">
-        <v>62.860644759740921</v>
+        <v>31.652499567460691</v>
       </c>
       <c r="AZ46">
-        <v>0.63041983493167209</v>
+        <v>0.47139371998855495</v>
       </c>
       <c r="BA46">
-        <v>2559386</v>
+        <v>25271169</v>
       </c>
       <c r="BB46">
-        <v>2551316</v>
+        <v>24950304</v>
       </c>
       <c r="BC46">
-        <v>5110702</v>
+        <v>50221473</v>
       </c>
       <c r="BG46">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BH46">
-        <v>40.299999999999997</v>
+        <v>29.4</v>
       </c>
       <c r="BJ46">
-        <v>33.540999999999997</v>
+        <v>73.438000000000002</v>
       </c>
       <c r="BK46">
-        <v>40.079352073050352</v>
+        <v>41.981654491265971</v>
       </c>
       <c r="BL46">
-        <v>342000</v>
+        <v>580370</v>
+      </c>
+      <c r="BM46">
+        <v>15.679048396313419</v>
       </c>
       <c r="BN46">
-        <v>66.459000000000003</v>
+        <v>26.562000000000001</v>
       </c>
       <c r="BO46">
-        <v>3.2621537322656349</v>
+        <v>4.0922878595727772</v>
       </c>
     </row>
     <row r="47" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -8087,13 +8108,13 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E47">
         <v>99.6</v>
@@ -8248,13 +8269,13 @@
         <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E48">
         <v>65.635757446289105</v>
@@ -8388,13 +8409,13 @@
         <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -8528,13 +8549,13 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -8662,13 +8683,13 @@
         <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -8772,13 +8793,13 @@
         <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -8903,13 +8924,13 @@
         <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -9040,13 +9061,13 @@
         <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -9174,160 +9195,139 @@
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E55">
-        <v>60.2</v>
+        <v>32.813331604003899</v>
       </c>
       <c r="F55">
-        <v>26.294944952198399</v>
+        <v>16.755115173361499</v>
       </c>
       <c r="G55">
-        <v>69.959999999999994</v>
+        <v>65.338348388671903</v>
       </c>
       <c r="H55">
-        <v>18.841000000000001</v>
+        <v>118.38500000000001</v>
       </c>
       <c r="I55">
-        <v>52.528580014346552</v>
+        <v>88.324306975762894</v>
       </c>
       <c r="J55">
-        <v>6.7974874144538289</v>
+        <v>4.8656616025770134</v>
       </c>
       <c r="K55">
-        <v>45.731092599892733</v>
+        <v>83.458645373185874</v>
       </c>
       <c r="L55">
-        <v>2.190564448579059</v>
+        <v>28.742086074120429</v>
       </c>
       <c r="M55">
-        <v>3.1250676096357859</v>
+        <v>0.1103977837171785</v>
       </c>
       <c r="N55">
-        <v>21.943999999999999</v>
+        <v>37.075000000000003</v>
       </c>
       <c r="P55">
-        <v>7.2930000000000001</v>
+        <v>6.6219999999999999</v>
       </c>
       <c r="Y55">
-        <v>50.405998229980497</v>
+        <v>66.924003601074205</v>
       </c>
       <c r="Z55">
-        <v>8.0209999084472692</v>
+        <v>6.8579998016357404</v>
       </c>
       <c r="AA55">
-        <v>41.573001861572301</v>
+        <v>26.218999862670898</v>
       </c>
       <c r="AB55">
-        <v>2.7850000000000001</v>
+        <v>4.9530000000000003</v>
       </c>
       <c r="AC55">
-        <v>1844674434.5037129</v>
+        <v>53320625958.562813</v>
       </c>
       <c r="AD55">
-        <v>4.0902636277002671</v>
-      </c>
-      <c r="AE55">
-        <v>41.6</v>
-      </c>
-      <c r="AG55">
-        <v>21.5</v>
-      </c>
-      <c r="AH55">
-        <v>47.6</v>
-      </c>
-      <c r="AI55">
-        <v>5.4</v>
-      </c>
-      <c r="AJ55">
-        <v>10.4</v>
-      </c>
-      <c r="AK55">
-        <v>15.1</v>
+        <v>6.7856801140519556</v>
       </c>
       <c r="AL55">
-        <v>15.514984379797591</v>
+        <v>25.099524995508339</v>
       </c>
       <c r="AM55">
-        <v>65.893000000000001</v>
+        <v>64.478999999999999</v>
       </c>
       <c r="AP55">
-        <v>49.331198122492772</v>
+        <v>25.680493718587019</v>
+      </c>
+      <c r="AQ55">
+        <v>1.1793767853612001</v>
       </c>
       <c r="AR55">
-        <v>39.514076379999999</v>
+        <v>73.094789989999995</v>
       </c>
       <c r="AS55">
-        <v>0.18758918334497138</v>
+        <v>0.49069580048380884</v>
       </c>
       <c r="AT55">
-        <v>29.9820251901548</v>
+        <v>44.3164485313565</v>
       </c>
       <c r="AU55">
-        <v>65.561450652950597</v>
+        <v>53.099890214731403</v>
       </c>
       <c r="AV55">
-        <v>4.4565241568945604</v>
+        <v>2.5836612539120898</v>
       </c>
       <c r="AW55">
-        <v>40.728947368421053</v>
+        <v>61.711341160532847</v>
       </c>
       <c r="AX55">
-        <v>1.59996238151791</v>
+        <v>2.9953881320120601</v>
       </c>
       <c r="AY55">
-        <v>75.211984634524299</v>
+        <v>31.655228527289118</v>
       </c>
       <c r="AZ55">
-        <v>0.63799103726341855</v>
+        <v>0.84236472856719047</v>
       </c>
       <c r="BA55">
-        <v>446702</v>
+        <v>27367208</v>
       </c>
       <c r="BB55">
-        <v>497395</v>
+        <v>27296698</v>
       </c>
       <c r="BC55">
-        <v>944097</v>
-      </c>
-      <c r="BD55">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="BE55">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="BF55">
-        <v>21.1</v>
+        <v>54663906</v>
       </c>
       <c r="BG55">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="BH55">
-        <v>18.899999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="BJ55">
-        <v>22.352</v>
+        <v>66.947000000000003</v>
       </c>
       <c r="BK55">
-        <v>71.886721567944235</v>
+        <v>37.92261984320178</v>
       </c>
       <c r="BL55">
-        <v>23200</v>
+        <v>947300</v>
+      </c>
+      <c r="BM55">
+        <v>11.826564971204499</v>
       </c>
       <c r="BN55">
-        <v>77.647999999999996</v>
+        <v>33.052999999999997</v>
       </c>
       <c r="BO55">
-        <v>1.754558927105252</v>
+        <v>5.1977838804640424</v>
       </c>
     </row>
     <row r="56" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -9335,13 +9335,13 @@
         <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -9409,13 +9409,13 @@
         <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -9543,16 +9543,16 @@
     </row>
     <row r="58" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C58" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E58">
         <v>80.380752563476605</v>
@@ -9677,13 +9677,13 @@
         <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -9838,13 +9838,13 @@
         <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -9978,13 +9978,13 @@
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E61">
         <v>99.490386962890597</v>
@@ -10169,13 +10169,13 @@
         <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E62">
         <v>67.184097290039105</v>
@@ -10297,73 +10297,142 @@
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E63">
-        <v>48.423789978027301</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>30.1889287691791</v>
+        <v>11.4294564360055</v>
       </c>
       <c r="G63">
-        <v>76.504364013671903</v>
+        <v>57</v>
       </c>
       <c r="H63">
-        <v>52.552999999999997</v>
+        <v>118.836</v>
+      </c>
+      <c r="I63">
+        <v>97.006461243094719</v>
+      </c>
+      <c r="J63">
+        <v>3.7831255309247882</v>
+      </c>
+      <c r="K63">
+        <v>93.223335712169927</v>
+      </c>
+      <c r="L63">
+        <v>24.580676980880739</v>
       </c>
       <c r="M63">
-        <v>12.659219452582761</v>
+        <v>0.29901606164775141</v>
       </c>
       <c r="N63">
-        <v>30.898</v>
+        <v>38.947000000000003</v>
       </c>
       <c r="P63">
-        <v>7.3259999999999996</v>
+        <v>6.7690000000000001</v>
       </c>
       <c r="Y63">
-        <v>62.861000061035199</v>
+        <v>71.069999694824205</v>
       </c>
       <c r="Z63">
-        <v>8.2069997787475604</v>
+        <v>7.28200006484985</v>
       </c>
       <c r="AA63">
-        <v>28.931999206543001</v>
+        <v>21.6480007171631</v>
       </c>
       <c r="AB63">
-        <v>4.1120000000000001</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="AC63">
-        <v>5813</v>
+        <v>25995031850.154461</v>
       </c>
       <c r="AD63">
-        <v>5</v>
+        <v>3.8630237568566059</v>
+      </c>
+      <c r="AF63">
+        <v>12.0088996887207</v>
+      </c>
+      <c r="AL63">
+        <v>20.33667087404476</v>
       </c>
       <c r="AM63">
-        <v>65.537999999999997</v>
+        <v>62.515999999999998</v>
+      </c>
+      <c r="AP63">
+        <v>32.687015153434047</v>
+      </c>
+      <c r="AQ63">
+        <v>1.2935933759192699</v>
       </c>
       <c r="AR63">
-        <v>20.363955149999999</v>
+        <v>60.60467775</v>
       </c>
       <c r="AS63">
-        <v>0.22213895438908365</v>
+        <v>0.38457311651000053</v>
+      </c>
+      <c r="AT63">
+        <v>47.319938198424403</v>
+      </c>
+      <c r="AU63">
+        <v>50.759756917430202</v>
+      </c>
+      <c r="AV63">
+        <v>1.92030488414537</v>
+      </c>
+      <c r="AW63">
+        <v>205.27860063834029</v>
+      </c>
+      <c r="AX63">
+        <v>3.74987516893954</v>
+      </c>
+      <c r="AY63">
+        <v>29.777163806831659</v>
       </c>
       <c r="AZ63">
-        <v>0.43332778558396967</v>
+        <v>0.48591556504834443</v>
+      </c>
+      <c r="BA63">
+        <v>20916321</v>
+      </c>
+      <c r="BB63">
+        <v>20246144</v>
+      </c>
+      <c r="BC63">
+        <v>41162465</v>
       </c>
       <c r="BG63">
-        <v>0.7</v>
+        <v>5.9</v>
+      </c>
+      <c r="BH63">
+        <v>41</v>
+      </c>
+      <c r="BJ63">
+        <v>76.804000000000002</v>
+      </c>
+      <c r="BK63">
+        <v>47.112853699014813</v>
       </c>
       <c r="BL63">
-        <v>117600</v>
+        <v>241550</v>
+      </c>
+      <c r="BM63">
+        <v>13.730327297926101</v>
+      </c>
+      <c r="BN63">
+        <v>23.196000000000002</v>
+      </c>
+      <c r="BO63">
+        <v>6.2467245002382823</v>
       </c>
     </row>
     <row r="64" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -10371,13 +10440,13 @@
         <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -10505,270 +10574,279 @@
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E65">
-        <v>73.526275634765597</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F65">
-        <v>67.391185267769998</v>
+        <v>13.9977011531986</v>
       </c>
       <c r="G65">
-        <v>93.359802246093807</v>
+        <v>75.2</v>
       </c>
       <c r="H65">
-        <v>76.694999999999993</v>
+        <v>120.11199999999999</v>
       </c>
       <c r="I65">
-        <v>73.467521291066845</v>
+        <v>90.462310784328466</v>
       </c>
       <c r="J65">
-        <v>6.9524085663963584</v>
+        <v>3.9707730885582508</v>
       </c>
       <c r="K65">
-        <v>66.515112724670487</v>
+        <v>86.491537695770205</v>
       </c>
       <c r="L65">
-        <v>8.3599249799643829</v>
+        <v>4.0242958082838776</v>
+      </c>
+      <c r="M65">
+        <v>0.2312131711739025</v>
       </c>
       <c r="N65">
-        <v>26.773</v>
+        <v>36.698999999999998</v>
       </c>
       <c r="P65">
-        <v>9.843</v>
+        <v>6.633</v>
       </c>
       <c r="Y65">
-        <v>13.1090002059937</v>
+        <v>54.191001892089801</v>
       </c>
       <c r="Z65">
-        <v>24.4829998016357</v>
+        <v>10.635999679565399</v>
       </c>
       <c r="AA65">
-        <v>62.409000396728501</v>
+        <v>35.173000335693402</v>
       </c>
       <c r="AB65">
-        <v>3.0179999999999998</v>
+        <v>4.718</v>
       </c>
       <c r="AC65">
-        <v>4433664364.2472525</v>
+        <v>25868142076.789749</v>
       </c>
       <c r="AD65">
-        <v>1.8730543418878649</v>
+        <v>3.4031688511950482</v>
       </c>
       <c r="AL65">
-        <v>33.900245219553852</v>
+        <v>37.304177277241472</v>
       </c>
       <c r="AM65">
-        <v>58.319000000000003</v>
+        <v>63.042999999999999</v>
       </c>
       <c r="AP65">
-        <v>78.016730988775919</v>
+        <v>61.813484526772669</v>
       </c>
       <c r="AQ65">
-        <v>1.79656325184064</v>
+        <v>1.3051997513476199</v>
       </c>
       <c r="AR65">
-        <v>93.527322510000005</v>
+        <v>79.736909609999998</v>
       </c>
       <c r="AS65">
-        <v>0.49629055714176501</v>
+        <v>2.6330315752420563E-2</v>
       </c>
       <c r="AT65">
-        <v>38.3444241446295</v>
+        <v>45.411368812085797</v>
       </c>
       <c r="AU65">
-        <v>57.647681153622202</v>
+        <v>52.5038242573589</v>
       </c>
       <c r="AV65">
-        <v>4.0078947017482998</v>
+        <v>2.0848069305553101</v>
       </c>
       <c r="AW65">
-        <v>65.39261627906977</v>
+        <v>22.671394557365581</v>
       </c>
       <c r="AX65">
-        <v>0.96206772501217097</v>
+        <v>2.9515832747826298</v>
+      </c>
+      <c r="AY65">
+        <v>33.221225725492928</v>
       </c>
       <c r="AZ65">
-        <v>0.52590593339846237</v>
+        <v>0.44646645973261911</v>
       </c>
       <c r="BA65">
-        <v>577502</v>
+        <v>8510888</v>
       </c>
       <c r="BB65">
-        <v>547251</v>
+        <v>8342800</v>
       </c>
       <c r="BC65">
-        <v>1124753</v>
-      </c>
-      <c r="BF65">
-        <v>58.9</v>
+        <v>16853688</v>
       </c>
       <c r="BG65">
-        <v>27.7</v>
+        <v>11.6</v>
       </c>
       <c r="BH65">
-        <v>20.6</v>
+        <v>46.7</v>
       </c>
       <c r="BJ65">
-        <v>76.375</v>
+        <v>57.024000000000001</v>
       </c>
       <c r="BK65">
-        <v>53.390982646200023</v>
+        <v>52.093836958826273</v>
       </c>
       <c r="BL65">
-        <v>17360</v>
+        <v>752610</v>
+      </c>
+      <c r="BM65">
+        <v>15.184870619405499</v>
       </c>
       <c r="BN65">
-        <v>23.625</v>
+        <v>42.975999999999999</v>
       </c>
       <c r="BO65">
-        <v>1.667043631418093</v>
+        <v>4.2113486531420703</v>
       </c>
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="C66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E66">
-        <v>44.3</v>
+        <v>40.4213676452637</v>
       </c>
       <c r="F66">
-        <v>30.970686141327899</v>
+        <v>18.934611314488301</v>
       </c>
       <c r="G66">
-        <v>96.6</v>
+        <v>85.587081909179702</v>
       </c>
       <c r="H66">
-        <v>66.727000000000004</v>
+        <v>86.135000000000005</v>
       </c>
       <c r="I66">
-        <v>80.958230427534815</v>
+        <v>83.466235010062022</v>
       </c>
       <c r="J66">
-        <v>6.3115155806363301</v>
+        <v>5.3135283674782263</v>
       </c>
       <c r="K66">
-        <v>74.64671484689849</v>
+        <v>78.152706642583794</v>
       </c>
       <c r="L66">
-        <v>33.66027363995822</v>
+        <v>9.6634278527178505</v>
       </c>
       <c r="M66">
-        <v>0.2751135566092493</v>
+        <v>0.74819245505123799</v>
       </c>
       <c r="N66">
-        <v>32.774999999999999</v>
+        <v>31.731999999999999</v>
       </c>
       <c r="P66">
-        <v>6.6909999999999998</v>
+        <v>8.0440000000000005</v>
       </c>
       <c r="Y66">
-        <v>67.074996948242202</v>
+        <v>67.072998046875</v>
       </c>
       <c r="Z66">
-        <v>11.442999839782701</v>
+        <v>7.2540001869201696</v>
       </c>
       <c r="AA66">
-        <v>21.482000350952099</v>
+        <v>25.673000335693398</v>
       </c>
       <c r="AB66">
-        <v>4.3499999999999996</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="AC66">
-        <v>81716326730.81897</v>
+        <v>22813010116.1292</v>
       </c>
       <c r="AD66">
-        <v>9.503858571095904</v>
+        <v>4.7040353483355943</v>
       </c>
       <c r="AL66">
-        <v>23.581851667126859</v>
+        <v>25.793332923371171</v>
       </c>
       <c r="AM66">
-        <v>65.872</v>
+        <v>60.811999999999998</v>
       </c>
       <c r="AP66">
-        <v>23.46042800375869</v>
+        <v>32.349961545768167</v>
       </c>
       <c r="AQ66">
-        <v>0.67666221118451897</v>
+        <v>1.9301341465609001</v>
       </c>
       <c r="AR66">
-        <v>37.218071700000003</v>
+        <v>98.985073330000006</v>
       </c>
       <c r="AS66">
-        <v>0.3852584776112053</v>
+        <v>0.12527879183180629</v>
       </c>
       <c r="AT66">
-        <v>41.250798261848402</v>
+        <v>42.597868380746903</v>
       </c>
       <c r="AU66">
-        <v>55.2613712393253</v>
+        <v>54.505940500519998</v>
       </c>
       <c r="AV66">
-        <v>3.4878304988263</v>
+        <v>2.8961911187331002</v>
       </c>
       <c r="AW66">
-        <v>106.400024</v>
+        <v>36.801719012537163</v>
       </c>
       <c r="AX66">
-        <v>2.6634679780737498</v>
+        <v>1.46006070897861</v>
       </c>
       <c r="AY66">
-        <v>19.509464320544641</v>
+        <v>32.89903756379509</v>
       </c>
       <c r="AZ66">
-        <v>0.60885082701861393</v>
+        <v>0.45607549863052554</v>
       </c>
       <c r="BA66">
-        <v>53185250</v>
+        <v>7459621</v>
       </c>
       <c r="BB66">
-        <v>53214774</v>
+        <v>6777124</v>
       </c>
       <c r="BC66">
-        <v>106400024</v>
+        <v>14236745</v>
+      </c>
+      <c r="BF66">
+        <v>70</v>
       </c>
       <c r="BG66">
-        <v>1.1000000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="BH66">
-        <v>20.6</v>
+        <v>51.3</v>
       </c>
       <c r="BJ66">
-        <v>79.69</v>
+        <v>67.763000000000005</v>
       </c>
       <c r="BK66">
-        <v>36.63829202304543</v>
+        <v>55.083397954590787</v>
       </c>
       <c r="BL66">
-        <v>1104300</v>
+        <v>390760</v>
       </c>
       <c r="BM66">
-        <v>7.6048918806272559</v>
+        <v>15.79314989021414</v>
       </c>
       <c r="BN66">
-        <v>20.309999999999999</v>
+        <v>32.237000000000002</v>
       </c>
       <c r="BO66">
-        <v>4.8738309519568084</v>
+        <v>1.277192471981105</v>
       </c>
     </row>
     <row r="67" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -10776,13 +10854,13 @@
         <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D67" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -10850,13 +10928,13 @@
         <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E68">
         <v>96</v>
@@ -10981,13 +11059,13 @@
         <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D69" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -11118,13 +11196,13 @@
         <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D70" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -11255,13 +11333,13 @@
         <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D71" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -11359,13 +11437,13 @@
         <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E72">
         <v>92.191200256347699</v>
@@ -11520,13 +11598,13 @@
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E73">
         <v>56.2</v>
@@ -11651,13 +11729,13 @@
         <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -11818,13 +11896,13 @@
         <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -11955,13 +12033,13 @@
         <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E76">
         <v>79</v>
@@ -12092,13 +12170,13 @@
         <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -12142,13 +12220,13 @@
         <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -12276,13 +12354,13 @@
         <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -12350,13 +12428,13 @@
         <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E80">
         <v>94.695671081542997</v>
@@ -12460,13 +12538,13 @@
         <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -12567,13 +12645,13 @@
         <v>144</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E82">
         <v>93.288093566894503</v>
@@ -12704,13 +12782,13 @@
         <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E83">
         <v>35.441215515136697</v>
@@ -12841,13 +12919,13 @@
         <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E84">
         <v>26.047348022460898</v>
@@ -12975,13 +13053,13 @@
         <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E85">
         <v>90.864875793457003</v>
@@ -13109,13 +13187,13 @@
         <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E86">
         <v>43.7525634765625</v>
@@ -13234,13 +13312,13 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E87">
         <v>86.5</v>
@@ -13398,13 +13476,13 @@
         <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C88" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -13538,13 +13616,13 @@
         <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -13675,13 +13753,13 @@
         <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -13794,13 +13872,13 @@
         <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D91" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E91">
         <v>92.618659973144503</v>
@@ -13928,13 +14006,13 @@
         <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D92" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E92">
         <v>98.14</v>
@@ -14092,13 +14170,13 @@
         <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C93" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -14229,13 +14307,13 @@
         <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -14360,13 +14438,13 @@
         <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C95" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -14518,13 +14596,13 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C96" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -14568,13 +14646,13 @@
         <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -14705,13 +14783,13 @@
         <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C98" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D98" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -14842,13 +14920,13 @@
         <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E99">
         <v>99.506446838378906</v>
@@ -14982,13 +15060,13 @@
         <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -15119,13 +15197,13 @@
         <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -15259,13 +15337,13 @@
         <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D102" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -15420,142 +15498,136 @@
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E103">
-        <v>63.811470031738303</v>
+        <v>62.824947357177699</v>
       </c>
       <c r="F103">
-        <v>57.570480323442602</v>
+        <v>24.264212331170999</v>
       </c>
       <c r="G103">
-        <v>81.066413879394503</v>
+        <v>80.393379211425795</v>
       </c>
       <c r="H103">
-        <v>75.078000000000003</v>
+        <v>46.061</v>
       </c>
       <c r="I103">
-        <v>74.234598444569883</v>
+        <v>62.669557417150337</v>
       </c>
       <c r="J103">
-        <v>3.9309149202577438</v>
+        <v>6.6480376043458644</v>
       </c>
       <c r="K103">
-        <v>70.303683524312149</v>
+        <v>56.021519812804478</v>
       </c>
       <c r="L103">
-        <v>34.828737464117253</v>
+        <v>1.9897542016293319</v>
       </c>
       <c r="M103">
-        <v>0.14598648175247</v>
+        <v>0.86468787649951284</v>
       </c>
       <c r="N103">
-        <v>29.295999999999999</v>
+        <v>25.396000000000001</v>
       </c>
       <c r="P103">
-        <v>5.5819999999999999</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="Y103">
-        <v>57.833999633789098</v>
+        <v>23.173999786376999</v>
       </c>
       <c r="Z103">
-        <v>7.5219998359680202</v>
+        <v>18.054000854492202</v>
       </c>
       <c r="AA103">
-        <v>34.644001007080099</v>
+        <v>58.771999359130902</v>
       </c>
       <c r="AB103">
-        <v>3.5720000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="AC103">
-        <v>78757391333.008804</v>
+        <v>17406565823.298611</v>
       </c>
       <c r="AD103">
-        <v>4.8625382212681814</v>
-      </c>
-      <c r="AF103">
-        <v>17.582279205322301</v>
+        <v>2.9075349102435548</v>
       </c>
       <c r="AL103">
-        <v>16.844131720303</v>
+        <v>29.833487721114562</v>
       </c>
       <c r="AM103">
-        <v>65.909000000000006</v>
+        <v>68.811999999999998</v>
       </c>
       <c r="AP103">
-        <v>28.484945501994371</v>
+        <v>64.573334649131723</v>
       </c>
       <c r="AQ103">
-        <v>1.2873742711420499</v>
+        <v>3.0216559053007002</v>
       </c>
       <c r="AR103">
-        <v>85.253156930000003</v>
+        <v>146.96015560000001</v>
       </c>
       <c r="AS103">
-        <v>0.33404534254514145</v>
+        <v>0.34459366209630388</v>
       </c>
       <c r="AT103">
-        <v>40.350012351371902</v>
+        <v>34.438841221180198</v>
       </c>
       <c r="AU103">
-        <v>57.3938820427461</v>
+        <v>61.474322927059298</v>
       </c>
       <c r="AV103">
-        <v>2.2561056058820799</v>
+        <v>4.0868358517604797</v>
       </c>
       <c r="AW103">
-        <v>88.240982886460273</v>
+        <v>3.8909674801051648</v>
       </c>
       <c r="AX103">
-        <v>2.3568125733826402</v>
-      </c>
-      <c r="AY103">
-        <v>31.652499567460691</v>
+        <v>2.0703261666535999</v>
       </c>
       <c r="AZ103">
-        <v>0.47139371998855495</v>
+        <v>0.46292535797692835</v>
       </c>
       <c r="BA103">
-        <v>25271169</v>
+        <v>1142634</v>
       </c>
       <c r="BB103">
-        <v>24950304</v>
+        <v>1062494</v>
       </c>
       <c r="BC103">
-        <v>50221473</v>
+        <v>2205128</v>
       </c>
       <c r="BG103">
-        <v>4.9000000000000004</v>
+        <v>20.7</v>
       </c>
       <c r="BH103">
-        <v>29.4</v>
+        <v>26.4</v>
       </c>
       <c r="BJ103">
-        <v>73.438000000000002</v>
+        <v>31.3</v>
       </c>
       <c r="BK103">
-        <v>41.981654491265971</v>
+        <v>59.11298896352335</v>
       </c>
       <c r="BL103">
-        <v>580370</v>
+        <v>581730</v>
       </c>
       <c r="BM103">
-        <v>15.679048396313419</v>
+        <v>22.144133743568929</v>
       </c>
       <c r="BN103">
-        <v>26.562000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="BO103">
-        <v>4.0922878595727772</v>
+        <v>3.1930412549843621</v>
       </c>
     </row>
     <row r="104" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -15563,13 +15635,13 @@
         <v>166</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C104" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E104">
         <v>98.614570617675795</v>
@@ -15679,13 +15751,13 @@
         <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D105" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E105">
         <v>43.871177673339801</v>
@@ -15789,13 +15861,13 @@
         <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C106" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -15923,13 +15995,13 @@
         <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C107" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -16018,13 +16090,13 @@
         <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C108" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D108" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -16155,13 +16227,13 @@
         <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C109" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -16322,13 +16394,13 @@
         <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C110" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D110" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E110">
         <v>93.6</v>
@@ -16453,13 +16525,13 @@
         <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C111" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D111" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -16590,13 +16662,13 @@
         <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D112" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -16724,139 +16796,139 @@
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D113" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E113">
-        <v>33.730758666992202</v>
+        <v>52.501182556152301</v>
       </c>
       <c r="F113">
-        <v>19.984329208213602</v>
+        <v>29.289980656348</v>
       </c>
       <c r="G113">
-        <v>69.556732177734403</v>
+        <v>76.654937744140597</v>
       </c>
       <c r="H113">
-        <v>92.725999999999999</v>
+        <v>63.627000000000002</v>
       </c>
       <c r="I113">
-        <v>60.911513793655288</v>
+        <v>68.21263966651567</v>
       </c>
       <c r="J113">
-        <v>7.8406405032437547</v>
+        <v>6.1715464327496843</v>
       </c>
       <c r="K113">
-        <v>53.070873290411527</v>
+        <v>62.041093233765977</v>
       </c>
       <c r="L113">
-        <v>6.1184080972353234</v>
+        <v>6.9549109384126213</v>
       </c>
       <c r="M113">
-        <v>0.21353171853530051</v>
+        <v>1.7467458670355209</v>
       </c>
       <c r="N113">
-        <v>27.17</v>
+        <v>29.105</v>
       </c>
       <c r="P113">
-        <v>14.656000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="Y113">
-        <v>67.147003173828097</v>
+        <v>19.905000686645501</v>
       </c>
       <c r="Z113">
-        <v>9.9329996109008807</v>
+        <v>19.322999954223601</v>
       </c>
       <c r="AA113">
-        <v>22.920000076293899</v>
+        <v>60.772998809814503</v>
       </c>
       <c r="AB113">
-        <v>3.1709999999999998</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="AC113">
-        <v>2578265355.7125502</v>
+        <v>13566192142.583509</v>
       </c>
       <c r="AD113">
-        <v>-2.286299106922868</v>
+        <v>-0.86787710819766062</v>
       </c>
       <c r="AL113">
-        <v>31.952605920518891</v>
+        <v>28.547127168397079</v>
       </c>
       <c r="AM113">
-        <v>52.947000000000003</v>
+        <v>63.021000000000001</v>
       </c>
       <c r="AP113">
-        <v>121.5933803343367</v>
+        <v>81.474594225340951</v>
       </c>
       <c r="AQ113">
-        <v>2.0125976245417401</v>
+        <v>3.5545227669984309</v>
       </c>
       <c r="AR113">
-        <v>113.8305187</v>
+        <v>111.552451</v>
       </c>
       <c r="AS113">
-        <v>0.46376839084841776</v>
+        <v>0.6485065462882631</v>
       </c>
       <c r="AT113">
-        <v>32.981390692190502</v>
+        <v>36.882536783603697</v>
       </c>
       <c r="AU113">
-        <v>62.145965592718099</v>
+        <v>59.448571629541398</v>
       </c>
       <c r="AV113">
-        <v>4.8726437150914101</v>
+        <v>3.6688915868549201</v>
       </c>
       <c r="AW113">
-        <v>68.8870882740448</v>
+        <v>2.9182948900144541</v>
       </c>
       <c r="AX113">
-        <v>0.78778003389368401</v>
+        <v>1.87215433710164</v>
+      </c>
+      <c r="AY113">
+        <v>33.27138872562842</v>
       </c>
       <c r="AZ113">
-        <v>0.52185072389693232</v>
+        <v>0.44850941220647655</v>
       </c>
       <c r="BA113">
-        <v>1061309</v>
+        <v>1238986</v>
       </c>
       <c r="BB113">
-        <v>1030103</v>
+        <v>1163617</v>
       </c>
       <c r="BC113">
-        <v>2091412</v>
-      </c>
-      <c r="BF113">
-        <v>49.7</v>
+        <v>2402603</v>
       </c>
       <c r="BG113">
-        <v>24</v>
+        <v>12.1</v>
       </c>
       <c r="BH113">
-        <v>13.1</v>
+        <v>27.3</v>
       </c>
       <c r="BJ113">
-        <v>72.27</v>
+        <v>50.994999999999997</v>
       </c>
       <c r="BK113">
-        <v>52.523028442087337</v>
+        <v>58.147088637558873</v>
       </c>
       <c r="BL113">
-        <v>30360</v>
+        <v>824290</v>
       </c>
       <c r="BM113">
-        <v>29.10837828014952</v>
+        <v>30.109010029714131</v>
       </c>
       <c r="BN113">
-        <v>27.73</v>
+        <v>49.005000000000003</v>
       </c>
       <c r="BO113">
-        <v>2.2884261902300431</v>
+        <v>4.0256074961249517</v>
       </c>
     </row>
     <row r="114" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -16864,13 +16936,13 @@
         <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E114">
         <v>21.488868713378899</v>
@@ -17001,13 +17073,13 @@
         <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C115" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D115" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E115">
         <v>70.148200988769503</v>
@@ -17117,13 +17189,13 @@
         <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D116" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -17182,13 +17254,13 @@
         <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D117" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -17316,13 +17388,13 @@
         <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -17450,13 +17522,13 @@
         <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C119" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D119" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -17572,13 +17644,13 @@
         <v>209</v>
       </c>
       <c r="B120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D120" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -17709,276 +17781,273 @@
     </row>
     <row r="121" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D121" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E121">
-        <v>24.075391769409201</v>
+        <v>27.425470352172901</v>
+      </c>
+      <c r="F121">
+        <v>2.1758250452255101</v>
       </c>
       <c r="G121">
-        <v>68.703590393066406</v>
+        <v>73.391860961914105</v>
       </c>
       <c r="H121">
-        <v>109.59</v>
+        <v>148.626</v>
       </c>
       <c r="I121">
-        <v>78.261046879852714</v>
+        <v>91.783220013302795</v>
       </c>
       <c r="J121">
-        <v>5.2233775676769421</v>
+        <v>5.5585188707841038</v>
       </c>
       <c r="K121">
-        <v>73.037669312175765</v>
+        <v>86.224701142518683</v>
       </c>
       <c r="L121">
-        <v>19.929088195855151</v>
+        <v>21.261015111944239</v>
       </c>
       <c r="M121">
-        <v>0.16883998259720251</v>
+        <v>8.8642552131893676E-2</v>
       </c>
       <c r="N121">
-        <v>32.896999999999998</v>
+        <v>37.875999999999998</v>
       </c>
       <c r="P121">
-        <v>6.1849999999999996</v>
+        <v>8.9640000000000004</v>
       </c>
       <c r="Y121">
-        <v>68.425003051757798</v>
+        <v>71.920997619628906</v>
       </c>
       <c r="Z121">
-        <v>7.3060002326965297</v>
+        <v>7.7740001678466797</v>
       </c>
       <c r="AA121">
-        <v>24.268999099731399</v>
+        <v>20.304000854492202</v>
       </c>
       <c r="AB121">
-        <v>4.13</v>
+        <v>4.9219999999999997</v>
       </c>
       <c r="AC121">
-        <v>11465850504.006729</v>
+        <v>12651912500.41284</v>
       </c>
       <c r="AD121">
-        <v>4.3068797797236584</v>
+        <v>3.7369582407380051</v>
       </c>
       <c r="AL121">
-        <v>22.532626659039931</v>
+        <v>24.870379371083569</v>
       </c>
       <c r="AM121">
-        <v>66.311000000000007</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="AP121">
-        <v>56.847069458321407</v>
+        <v>82.754287145586559</v>
       </c>
       <c r="AQ121">
-        <v>0.58002235080898901</v>
+        <v>1.02164265203857</v>
       </c>
       <c r="AR121">
-        <v>34.14284</v>
+        <v>41.451703510000002</v>
       </c>
       <c r="AS121">
-        <v>0.43058183867542538</v>
+        <v>0.42545808658614986</v>
       </c>
       <c r="AT121">
-        <v>40.972312169580299</v>
+        <v>44.959460739631602</v>
       </c>
       <c r="AU121">
-        <v>56.097504031205901</v>
+        <v>52.142206060954699</v>
       </c>
       <c r="AV121">
-        <v>2.9301837992137201</v>
+        <v>2.8983331994136798</v>
       </c>
       <c r="AW121">
-        <v>43.950739085596418</v>
+        <v>36.431505124748853</v>
       </c>
       <c r="AX121">
-        <v>2.6798832393638801</v>
+        <v>2.9006291420522201</v>
       </c>
       <c r="AY121">
-        <v>31.095315248424519</v>
+        <v>15.7937997569285</v>
       </c>
       <c r="AZ121">
-        <v>0.55741821951232851</v>
+        <v>0.53507176415951108</v>
       </c>
       <c r="BA121">
-        <v>12818676</v>
+        <v>14757711</v>
       </c>
       <c r="BB121">
-        <v>12751864</v>
+        <v>13891296</v>
       </c>
       <c r="BC121">
-        <v>25570540</v>
+        <v>28649007</v>
       </c>
       <c r="BG121">
-        <v>0.3</v>
+        <v>12.6</v>
       </c>
       <c r="BH121">
-        <v>44.4</v>
+        <v>27.9</v>
       </c>
       <c r="BJ121">
-        <v>63.478000000000002</v>
+        <v>64.545000000000002</v>
       </c>
       <c r="BK121">
-        <v>44.053427880691473</v>
+        <v>47.682242688600972</v>
       </c>
       <c r="BL121">
-        <v>587295</v>
+        <v>786380</v>
       </c>
       <c r="BM121">
-        <v>11.450869237909011</v>
+        <v>23.182974407524281</v>
       </c>
       <c r="BN121">
-        <v>36.521999999999998</v>
+        <v>35.454999999999998</v>
       </c>
       <c r="BO121">
-        <v>4.5202762883855279</v>
+        <v>4.4038951118223917</v>
       </c>
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D122" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E122">
-        <v>12.7</v>
-      </c>
-      <c r="F122">
-        <v>3.7094485701313098</v>
+        <v>24.075391769409201</v>
       </c>
       <c r="G122">
-        <v>57.5</v>
+        <v>68.703590393066406</v>
       </c>
       <c r="H122">
-        <v>132.67099999999999</v>
+        <v>109.59</v>
       </c>
       <c r="I122">
-        <v>88.486814490636007</v>
+        <v>78.261046879852714</v>
       </c>
       <c r="J122">
-        <v>4.9930457175668508</v>
+        <v>5.2233775676769421</v>
       </c>
       <c r="K122">
-        <v>83.493768773069164</v>
+        <v>73.037669312175765</v>
       </c>
       <c r="L122">
-        <v>26.096924239010882</v>
+        <v>19.929088195855151</v>
       </c>
       <c r="M122">
-        <v>0.1973712777421778</v>
+        <v>0.16883998259720251</v>
       </c>
       <c r="N122">
-        <v>34.593000000000004</v>
+        <v>32.896999999999998</v>
       </c>
       <c r="P122">
-        <v>6.8109999999999999</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="Y122">
-        <v>72.066001892089801</v>
+        <v>68.425003051757798</v>
       </c>
       <c r="Z122">
-        <v>8.22399997711182</v>
+        <v>7.3060002326965297</v>
       </c>
       <c r="AA122">
-        <v>19.708999633789102</v>
+        <v>24.268999099731399</v>
       </c>
       <c r="AB122">
-        <v>4.3019999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="AC122">
-        <v>6303292264.1890526</v>
+        <v>11465850504.006729</v>
       </c>
       <c r="AD122">
-        <v>4.0000305165304164</v>
-      </c>
-      <c r="AF122">
-        <v>14.3401098251343</v>
+        <v>4.3068797797236584</v>
       </c>
       <c r="AL122">
-        <v>14.35126298005201</v>
+        <v>22.532626659039931</v>
       </c>
       <c r="AM122">
-        <v>63.279000000000003</v>
+        <v>66.311000000000007</v>
       </c>
       <c r="AP122">
-        <v>54.431872364424052</v>
+        <v>56.847069458321407</v>
       </c>
       <c r="AQ122">
-        <v>0.76272873136140196</v>
+        <v>0.58002235080898901</v>
       </c>
       <c r="AR122">
-        <v>43.986512660000002</v>
+        <v>34.14284</v>
       </c>
       <c r="AS122">
-        <v>3.037938616471364E-2</v>
+        <v>0.43058183867542538</v>
       </c>
       <c r="AT122">
-        <v>44.2968770691621</v>
+        <v>40.972312169580299</v>
       </c>
       <c r="AU122">
-        <v>53.054108737673303</v>
+        <v>56.097504031205901</v>
       </c>
       <c r="AV122">
-        <v>2.6490141931645801</v>
+        <v>2.9301837992137201</v>
       </c>
       <c r="AW122">
-        <v>187.4232074671192</v>
+        <v>43.950739085596418</v>
       </c>
       <c r="AX122">
-        <v>2.66661638772471</v>
+        <v>2.6798832393638801</v>
       </c>
       <c r="AY122">
-        <v>33.400577705680249</v>
+        <v>31.095315248424519</v>
       </c>
       <c r="AZ122">
-        <v>0.61287124834780116</v>
+        <v>0.55741821951232851</v>
       </c>
       <c r="BA122">
-        <v>8960669</v>
+        <v>12818676</v>
       </c>
       <c r="BB122">
-        <v>8709591</v>
+        <v>12751864</v>
       </c>
       <c r="BC122">
-        <v>17670260</v>
+        <v>25570540</v>
       </c>
       <c r="BG122">
-        <v>9.4</v>
+        <v>0.3</v>
       </c>
       <c r="BH122">
-        <v>17.5</v>
+        <v>44.4</v>
       </c>
       <c r="BJ122">
-        <v>83.286000000000001</v>
+        <v>63.478000000000002</v>
       </c>
       <c r="BK122">
-        <v>52.428428451044397</v>
+        <v>44.053427880691473</v>
       </c>
       <c r="BL122">
-        <v>118480</v>
+        <v>587295</v>
       </c>
       <c r="BM122">
-        <v>17.287923840176848</v>
+        <v>11.450869237909011</v>
       </c>
       <c r="BN122">
-        <v>16.713999999999999</v>
+        <v>36.521999999999998</v>
       </c>
       <c r="BO122">
-        <v>3.9188818294983769</v>
+        <v>4.5202762883855279</v>
       </c>
     </row>
     <row r="123" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -17986,13 +18055,13 @@
         <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D123" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -18126,13 +18195,13 @@
         <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D124" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E124">
         <v>99.8</v>
@@ -18251,13 +18320,13 @@
         <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D125" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E125">
         <v>43.089839935302699</v>
@@ -18388,13 +18457,13 @@
         <v>187</v>
       </c>
       <c r="B126" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -18519,13 +18588,13 @@
         <v>188</v>
       </c>
       <c r="B127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C127" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D127" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E127">
         <v>94.7550048828125</v>
@@ -18593,13 +18662,13 @@
         <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D128" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E128">
         <v>42.912319183349602</v>
@@ -18724,13 +18793,13 @@
         <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E129">
         <v>98.031433105468807</v>
@@ -18861,13 +18930,13 @@
         <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -18998,13 +19067,13 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C131" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D131" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E131">
         <v>80.756683349609403</v>
@@ -19102,13 +19171,13 @@
         <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C132" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D132" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -19263,13 +19332,13 @@
         <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D133" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -19319,13 +19388,13 @@
         <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C134" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D134" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E134">
         <v>85.869651794433594</v>
@@ -19459,13 +19528,13 @@
         <v>196</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C135" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D135" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -19590,13 +19659,13 @@
         <v>197</v>
       </c>
       <c r="B136" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D136" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -19724,139 +19793,142 @@
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C137" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E137">
-        <v>27.425470352172901</v>
+        <v>34.1</v>
       </c>
       <c r="F137">
-        <v>2.1758250452255101</v>
+        <v>23.623527590265699</v>
       </c>
       <c r="G137">
-        <v>73.391860961914105</v>
+        <v>84.8</v>
       </c>
       <c r="H137">
-        <v>148.626</v>
+        <v>39.113999999999997</v>
       </c>
       <c r="I137">
-        <v>91.783220013302795</v>
+        <v>75.395179263877978</v>
       </c>
       <c r="J137">
-        <v>5.5585188707841038</v>
+        <v>4.9983428060802044</v>
       </c>
       <c r="K137">
-        <v>86.224701142518683</v>
+        <v>70.396836457797775</v>
       </c>
       <c r="L137">
-        <v>21.261015111944239</v>
+        <v>30.962037457435478</v>
       </c>
       <c r="M137">
-        <v>8.8642552131893676E-2</v>
+        <v>0.58143407891455889</v>
       </c>
       <c r="N137">
-        <v>37.875999999999998</v>
+        <v>32.061999999999998</v>
       </c>
       <c r="P137">
-        <v>8.9640000000000004</v>
+        <v>5.3079999999999998</v>
       </c>
       <c r="Y137">
-        <v>71.920997619628906</v>
+        <v>67.080001831054702</v>
       </c>
       <c r="Z137">
-        <v>7.7740001678466797</v>
+        <v>8.5590000152587908</v>
       </c>
       <c r="AA137">
-        <v>20.304000854492202</v>
+        <v>24.361000061035199</v>
       </c>
       <c r="AB137">
-        <v>4.9219999999999997</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="AC137">
-        <v>12651912500.41284</v>
+        <v>9135454442.1401272</v>
       </c>
       <c r="AD137">
-        <v>3.7369582407380051</v>
+        <v>6.0578313191881819</v>
+      </c>
+      <c r="AF137">
+        <v>11.0796098709106</v>
       </c>
       <c r="AL137">
-        <v>24.870379371083569</v>
+        <v>15.76729215080441</v>
       </c>
       <c r="AM137">
-        <v>59.308999999999997</v>
+        <v>68.340999999999994</v>
       </c>
       <c r="AP137">
-        <v>82.754287145586559</v>
+        <v>37.381829460472701</v>
       </c>
       <c r="AQ137">
-        <v>1.02164265203857</v>
+        <v>1.2751619400271399</v>
       </c>
       <c r="AR137">
-        <v>41.451703510000002</v>
+        <v>73.61026382</v>
       </c>
       <c r="AS137">
-        <v>0.42545808658614986</v>
+        <v>0.35807885372632881</v>
       </c>
       <c r="AT137">
-        <v>44.959460739631602</v>
+        <v>40.136129313833798</v>
       </c>
       <c r="AU137">
-        <v>52.142206060954699</v>
+        <v>57.0141076329353</v>
       </c>
       <c r="AV137">
-        <v>2.8983331994136798</v>
+        <v>2.8497630532308702</v>
       </c>
       <c r="AW137">
-        <v>36.431505124748853</v>
+        <v>485.6480340494528</v>
       </c>
       <c r="AX137">
-        <v>2.9006291420522201</v>
+        <v>2.6396647496540799</v>
       </c>
       <c r="AY137">
-        <v>15.7937997569285</v>
+        <v>49.766709638427962</v>
       </c>
       <c r="AZ137">
-        <v>0.53507176415951108</v>
+        <v>0.44966833583021071</v>
       </c>
       <c r="BA137">
-        <v>14757711</v>
+        <v>6094885</v>
       </c>
       <c r="BB137">
-        <v>13891296</v>
+        <v>5886052</v>
       </c>
       <c r="BC137">
-        <v>28649007</v>
+        <v>11980937</v>
       </c>
       <c r="BG137">
-        <v>12.6</v>
+        <v>2.6</v>
       </c>
       <c r="BH137">
-        <v>27.9</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="BJ137">
-        <v>64.545000000000002</v>
+        <v>82.875</v>
       </c>
       <c r="BK137">
-        <v>47.682242688600972</v>
+        <v>46.376913091435704</v>
       </c>
       <c r="BL137">
-        <v>786380</v>
+        <v>26340</v>
       </c>
       <c r="BM137">
-        <v>23.182974407524281</v>
+        <v>13.624595716168001</v>
       </c>
       <c r="BN137">
-        <v>35.454999999999998</v>
+        <v>17.125</v>
       </c>
       <c r="BO137">
-        <v>4.4038951118223917</v>
+        <v>3.043355690556373</v>
       </c>
     </row>
     <row r="138" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -19864,13 +19936,13 @@
         <v>199</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C138" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E138">
         <v>69.814836597508801</v>
@@ -20004,13 +20076,13 @@
         <v>210</v>
       </c>
       <c r="B139" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C139" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D139" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E139">
         <v>100</v>
@@ -20060,139 +20132,136 @@
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="C140" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D140" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E140">
-        <v>52.501182556152301</v>
+        <v>66.214851379394503</v>
       </c>
       <c r="F140">
-        <v>29.289980656348</v>
+        <v>24.180856490540702</v>
       </c>
       <c r="G140">
-        <v>76.654937744140597</v>
+        <v>87.428863525390597</v>
       </c>
       <c r="H140">
-        <v>63.627000000000002</v>
+        <v>112.229</v>
       </c>
       <c r="I140">
-        <v>68.21263966651567</v>
+        <v>80.464234324102435</v>
       </c>
       <c r="J140">
-        <v>6.1715464327496843</v>
+        <v>4.7699573619117386</v>
       </c>
       <c r="K140">
-        <v>62.041093233765977</v>
+        <v>75.694276962190699</v>
       </c>
       <c r="L140">
-        <v>6.9549109384126213</v>
+        <v>6.3983042981243843</v>
       </c>
       <c r="M140">
-        <v>1.7467458670355209</v>
+        <v>0.58330578833777291</v>
       </c>
       <c r="N140">
-        <v>29.105</v>
+        <v>33.378</v>
       </c>
       <c r="P140">
-        <v>8.23</v>
+        <v>6.8280000000000003</v>
       </c>
       <c r="Y140">
-        <v>19.905000686645501</v>
+        <v>35.992000579833999</v>
       </c>
       <c r="Z140">
-        <v>19.322999954223601</v>
+        <v>22.268999099731399</v>
       </c>
       <c r="AA140">
-        <v>60.772998809814503</v>
+        <v>41.738998413085902</v>
       </c>
       <c r="AB140">
-        <v>3.4470000000000001</v>
+        <v>4.4820000000000002</v>
       </c>
       <c r="AC140">
-        <v>13566192142.583509</v>
+        <v>8701334800.2197571</v>
       </c>
       <c r="AD140">
-        <v>-0.86787710819766062</v>
+        <v>-3.100000000000009</v>
       </c>
       <c r="AL140">
-        <v>28.547127168397079</v>
+        <v>53.522343628825283</v>
       </c>
       <c r="AM140">
-        <v>63.021000000000001</v>
+        <v>63.954000000000001</v>
       </c>
       <c r="AP140">
-        <v>81.474594225340951</v>
+        <v>112.8907256821323</v>
       </c>
       <c r="AQ140">
-        <v>3.5545227669984309</v>
+        <v>4.2682968306850899</v>
       </c>
       <c r="AR140">
-        <v>111.552451</v>
+        <v>98.929793309999994</v>
       </c>
       <c r="AS140">
-        <v>0.6485065462882631</v>
+        <v>0.38246212246376671</v>
       </c>
       <c r="AT140">
-        <v>36.882536783603697</v>
+        <v>41.9441974134633</v>
       </c>
       <c r="AU140">
-        <v>59.448571629541398</v>
+        <v>55.412639572504297</v>
       </c>
       <c r="AV140">
-        <v>3.6688915868549201</v>
+        <v>2.6431630140323401</v>
       </c>
       <c r="AW140">
-        <v>2.9182948900144541</v>
+        <v>14.965452415812591</v>
       </c>
       <c r="AX140">
-        <v>1.87215433710164</v>
+        <v>2.5706299142737401</v>
       </c>
       <c r="AY140">
-        <v>33.27138872562842</v>
+        <v>62.860644759740921</v>
       </c>
       <c r="AZ140">
-        <v>0.44850941220647655</v>
+        <v>0.63041983493167209</v>
       </c>
       <c r="BA140">
-        <v>1238986</v>
+        <v>2559386</v>
       </c>
       <c r="BB140">
-        <v>1163617</v>
+        <v>2551316</v>
       </c>
       <c r="BC140">
-        <v>2402603</v>
+        <v>5110702</v>
       </c>
       <c r="BG140">
-        <v>12.1</v>
+        <v>2.7</v>
       </c>
       <c r="BH140">
-        <v>27.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="BJ140">
-        <v>50.994999999999997</v>
+        <v>33.540999999999997</v>
       </c>
       <c r="BK140">
-        <v>58.147088637558873</v>
+        <v>40.079352073050352</v>
       </c>
       <c r="BL140">
-        <v>824290</v>
-      </c>
-      <c r="BM140">
-        <v>30.109010029714131</v>
+        <v>342000</v>
       </c>
       <c r="BN140">
-        <v>49.005000000000003</v>
+        <v>66.459000000000003</v>
       </c>
       <c r="BO140">
-        <v>4.0256074961249517</v>
+        <v>3.2621537322656349</v>
       </c>
     </row>
     <row r="141" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
@@ -20200,13 +20269,13 @@
         <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C141" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E141">
         <v>99.553169250488295</v>
@@ -20259,13 +20328,13 @@
         <v>202</v>
       </c>
       <c r="B142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D142" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E142">
         <v>95.507476806640597</v>
@@ -20399,13 +20468,13 @@
         <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C143" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E143">
         <v>100</v>
@@ -20536,13 +20605,13 @@
         <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D144" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E144">
         <v>100</v>
@@ -20637,13 +20706,13 @@
         <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C145" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D145" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E145">
         <v>100</v>
@@ -20765,13 +20834,13 @@
         <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E146">
         <v>86.767799377441406</v>
@@ -20902,13 +20971,13 @@
         <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C147" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E147">
         <v>20.041904449462901</v>
@@ -21039,13 +21108,13 @@
         <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E148">
         <v>54.4</v>
@@ -21176,13 +21245,13 @@
         <v>211</v>
       </c>
       <c r="B149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C149" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D149" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E149">
         <v>100</v>
@@ -21313,13 +21382,13 @@
         <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C150" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E150">
         <v>100</v>
@@ -21456,13 +21525,13 @@
         <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D151" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E151">
         <v>70.790000000000006</v>
@@ -21593,13 +21662,13 @@
         <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C152" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E152">
         <v>100</v>
@@ -21670,13 +21739,13 @@
         <v>215</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C153" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E153">
         <v>100</v>
@@ -21825,13 +21894,13 @@
         <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D154" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E154">
         <v>54.427448272705099</v>
@@ -21950,13 +22019,13 @@
         <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C155" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D155" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E155">
         <v>99.3</v>
@@ -22114,13 +22183,13 @@
         <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D156" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E156">
         <v>96.362991333007798</v>
@@ -22287,13 +22356,13 @@
         <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E157">
         <v>93</v>
@@ -22427,13 +22496,13 @@
         <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C158" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D158" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E158">
         <v>100</v>
@@ -22555,13 +22624,13 @@
         <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D159" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E159">
         <v>100</v>
@@ -22692,13 +22761,13 @@
         <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D160" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E160">
         <v>100</v>
@@ -22841,13 +22910,13 @@
         <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C161" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D161" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -22969,13 +23038,13 @@
         <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D162" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E162">
         <v>100</v>
@@ -23109,13 +23178,13 @@
         <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D163" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E163">
         <v>100</v>
@@ -23243,156 +23312,156 @@
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C164" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D164" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E164">
-        <v>34.1</v>
+        <v>12.7</v>
       </c>
       <c r="F164">
-        <v>23.623527590265699</v>
+        <v>3.7094485701313098</v>
       </c>
       <c r="G164">
-        <v>84.8</v>
+        <v>57.5</v>
       </c>
       <c r="H164">
-        <v>39.113999999999997</v>
+        <v>132.67099999999999</v>
       </c>
       <c r="I164">
-        <v>75.395179263877978</v>
+        <v>88.486814490636007</v>
       </c>
       <c r="J164">
-        <v>4.9983428060802044</v>
+        <v>4.9930457175668508</v>
       </c>
       <c r="K164">
-        <v>70.396836457797775</v>
+        <v>83.493768773069164</v>
       </c>
       <c r="L164">
-        <v>30.962037457435478</v>
+        <v>26.096924239010882</v>
       </c>
       <c r="M164">
-        <v>0.58143407891455889</v>
+        <v>0.1973712777421778</v>
       </c>
       <c r="N164">
-        <v>32.061999999999998</v>
+        <v>34.593000000000004</v>
       </c>
       <c r="P164">
-        <v>5.3079999999999998</v>
+        <v>6.8109999999999999</v>
       </c>
       <c r="Y164">
-        <v>67.080001831054702</v>
+        <v>72.066001892089801</v>
       </c>
       <c r="Z164">
-        <v>8.5590000152587908</v>
+        <v>8.22399997711182</v>
       </c>
       <c r="AA164">
-        <v>24.361000061035199</v>
+        <v>19.708999633789102</v>
       </c>
       <c r="AB164">
-        <v>4.0880000000000001</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="AC164">
-        <v>9135454442.1401272</v>
+        <v>6303292264.1890526</v>
       </c>
       <c r="AD164">
-        <v>6.0578313191881819</v>
+        <v>4.0000305165304164</v>
       </c>
       <c r="AF164">
-        <v>11.0796098709106</v>
+        <v>14.3401098251343</v>
       </c>
       <c r="AL164">
-        <v>15.76729215080441</v>
+        <v>14.35126298005201</v>
       </c>
       <c r="AM164">
-        <v>68.340999999999994</v>
+        <v>63.279000000000003</v>
       </c>
       <c r="AP164">
-        <v>37.381829460472701</v>
+        <v>54.431872364424052</v>
       </c>
       <c r="AQ164">
-        <v>1.2751619400271399</v>
+        <v>0.76272873136140196</v>
       </c>
       <c r="AR164">
-        <v>73.61026382</v>
+        <v>43.986512660000002</v>
       </c>
       <c r="AS164">
-        <v>0.35807885372632881</v>
+        <v>3.037938616471364E-2</v>
       </c>
       <c r="AT164">
-        <v>40.136129313833798</v>
+        <v>44.2968770691621</v>
       </c>
       <c r="AU164">
-        <v>57.0141076329353</v>
+        <v>53.054108737673303</v>
       </c>
       <c r="AV164">
-        <v>2.8497630532308702</v>
+        <v>2.6490141931645801</v>
       </c>
       <c r="AW164">
-        <v>485.6480340494528</v>
+        <v>187.4232074671192</v>
       </c>
       <c r="AX164">
-        <v>2.6396647496540799</v>
+        <v>2.66661638772471</v>
       </c>
       <c r="AY164">
-        <v>49.766709638427962</v>
+        <v>33.400577705680249</v>
       </c>
       <c r="AZ164">
-        <v>0.44966833583021071</v>
+        <v>0.61287124834780116</v>
       </c>
       <c r="BA164">
-        <v>6094885</v>
+        <v>8960669</v>
       </c>
       <c r="BB164">
-        <v>5886052</v>
+        <v>8709591</v>
       </c>
       <c r="BC164">
-        <v>11980937</v>
+        <v>17670260</v>
       </c>
       <c r="BG164">
-        <v>2.6</v>
+        <v>9.4</v>
       </c>
       <c r="BH164">
-        <v>36.799999999999997</v>
+        <v>17.5</v>
       </c>
       <c r="BJ164">
-        <v>82.875</v>
+        <v>83.286000000000001</v>
       </c>
       <c r="BK164">
-        <v>46.376913091435704</v>
+        <v>52.428428451044397</v>
       </c>
       <c r="BL164">
-        <v>26340</v>
+        <v>118480</v>
       </c>
       <c r="BM164">
-        <v>13.624595716168001</v>
+        <v>17.287923840176848</v>
       </c>
       <c r="BN164">
-        <v>17.125</v>
+        <v>16.713999999999999</v>
       </c>
       <c r="BO164">
-        <v>3.043355690556373</v>
+        <v>3.9188818294983769</v>
       </c>
     </row>
     <row r="165" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D165" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E165">
         <v>100</v>
@@ -23457,16 +23526,16 @@
     </row>
     <row r="166" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C166" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D166" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E166">
         <v>98.759788513183594</v>
@@ -23579,16 +23648,16 @@
     </row>
     <row r="167" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B167" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D167" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E167">
         <v>100</v>
@@ -23710,13 +23779,13 @@
         <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E168">
         <v>96.8</v>
@@ -23832,13 +23901,13 @@
         <v>228</v>
       </c>
       <c r="B169" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C169" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D169" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -23891,13 +23960,13 @@
         <v>229</v>
       </c>
       <c r="B170" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C170" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D170" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E170">
         <v>72.510704040527301</v>
@@ -24016,13 +24085,13 @@
         <v>230</v>
       </c>
       <c r="B171" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D171" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -24150,13 +24219,13 @@
         <v>231</v>
       </c>
       <c r="B172" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D172" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E172">
         <v>61.7</v>
@@ -24320,13 +24389,13 @@
         <v>232</v>
       </c>
       <c r="B173" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C173" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D173" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -24454,13 +24523,13 @@
         <v>233</v>
       </c>
       <c r="B174" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C174" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D174" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E174">
         <v>100</v>
@@ -24567,13 +24636,13 @@
         <v>234</v>
       </c>
       <c r="B175" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C175" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E175">
         <v>23.4</v>
@@ -24704,13 +24773,13 @@
         <v>235</v>
       </c>
       <c r="B176" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D176" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -24835,13 +24904,13 @@
         <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D177" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -24882,13 +24951,13 @@
         <v>237</v>
       </c>
       <c r="B178" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C178" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D178" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E178">
         <v>100</v>
@@ -25019,13 +25088,13 @@
         <v>238</v>
       </c>
       <c r="B179" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C179" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D179" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E179">
         <v>100</v>
@@ -25153,13 +25222,13 @@
         <v>239</v>
       </c>
       <c r="B180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D180" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E180">
         <v>62.895641326904297</v>
@@ -25266,391 +25335,412 @@
     </row>
     <row r="181" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="B181" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
       <c r="C181" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D181" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E181">
-        <v>32.9465141296387</v>
+        <v>73.526275634765597</v>
       </c>
       <c r="F181">
-        <v>8.7189971006049092</v>
+        <v>67.391185267769998</v>
       </c>
       <c r="G181">
-        <v>63.296543121337898</v>
+        <v>93.359802246093807</v>
       </c>
       <c r="H181">
-        <v>100.08499999999999</v>
+        <v>76.694999999999993</v>
       </c>
       <c r="I181">
-        <v>98.438929893916495</v>
+        <v>73.467521291066845</v>
       </c>
       <c r="J181">
-        <v>5.6628151683418686</v>
+        <v>6.9524085663963584</v>
       </c>
       <c r="K181">
-        <v>92.776114725574615</v>
-      </c>
-      <c r="M181">
-        <v>0.55575176680433569</v>
+        <v>66.515112724670487</v>
+      </c>
+      <c r="L181">
+        <v>8.3599249799643829</v>
       </c>
       <c r="N181">
-        <v>41.918999999999997</v>
+        <v>26.773</v>
       </c>
       <c r="P181">
-        <v>11.061999999999999</v>
+        <v>9.843</v>
       </c>
       <c r="Y181">
-        <v>72.483001708984403</v>
+        <v>13.1090002059937</v>
       </c>
       <c r="Z181">
-        <v>6.4239997863769496</v>
+        <v>24.4829998016357</v>
       </c>
       <c r="AA181">
-        <v>21.093000411987301</v>
+        <v>62.409000396728501</v>
       </c>
       <c r="AB181">
-        <v>6.1680000000000001</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="AC181">
-        <v>7052</v>
+        <v>4433664364.2472525</v>
       </c>
       <c r="AD181">
-        <v>2.2999999999999998</v>
+        <v>1.8730543418878649</v>
+      </c>
+      <c r="AL181">
+        <v>33.900245219553852</v>
       </c>
       <c r="AM181">
-        <v>56.709000000000003</v>
+        <v>58.319000000000003</v>
+      </c>
+      <c r="AP181">
+        <v>78.016730988775919</v>
+      </c>
+      <c r="AQ181">
+        <v>1.79656325184064</v>
       </c>
       <c r="AR181">
-        <v>48.796440160000003</v>
+        <v>93.527322510000005</v>
       </c>
       <c r="AS181">
-        <v>0.35042119255449505</v>
+        <v>0.49629055714176501</v>
       </c>
       <c r="AT181">
-        <v>46.752980411029299</v>
+        <v>38.3444241446295</v>
       </c>
       <c r="AU181">
-        <v>50.393336047216899</v>
+        <v>57.647681153622202</v>
       </c>
       <c r="AV181">
-        <v>2.85368354175379</v>
+        <v>4.0078947017482998</v>
       </c>
       <c r="AW181">
-        <v>23.255521726655399</v>
+        <v>65.39261627906977</v>
       </c>
       <c r="AX181">
-        <v>2.8047694896515698</v>
-      </c>
-      <c r="AY181">
-        <v>30.524241166501142</v>
+        <v>0.96206772501217097</v>
       </c>
       <c r="AZ181">
-        <v>0.68483092389942612</v>
+        <v>0.52590593339846237</v>
       </c>
       <c r="BA181">
-        <v>7313284</v>
+        <v>577502</v>
       </c>
       <c r="BB181">
-        <v>7275835</v>
+        <v>547251</v>
       </c>
       <c r="BC181">
-        <v>14589119</v>
+        <v>1124753</v>
+      </c>
+      <c r="BF181">
+        <v>58.9</v>
       </c>
       <c r="BG181">
-        <v>0.1</v>
+        <v>27.7</v>
+      </c>
+      <c r="BH181">
+        <v>20.6</v>
       </c>
       <c r="BJ181">
-        <v>55.609000000000002</v>
+        <v>76.375</v>
+      </c>
+      <c r="BK181">
+        <v>53.390982646200023</v>
       </c>
       <c r="BL181">
-        <v>637660</v>
-      </c>
-      <c r="BM181">
-        <v>1.0757417283722639E-4</v>
+        <v>17360</v>
       </c>
       <c r="BN181">
-        <v>44.390999999999998</v>
+        <v>23.625</v>
       </c>
       <c r="BO181">
-        <v>4.1085453027759344</v>
+        <v>1.667043631418093</v>
       </c>
     </row>
     <row r="182" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="B182" t="s">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="C182" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D182" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E182">
-        <v>84.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F182">
-        <v>66.885808984159496</v>
+        <v>1.65840932053429</v>
       </c>
       <c r="G182">
-        <v>93.48291015625</v>
+        <v>61.8</v>
       </c>
       <c r="H182">
-        <v>67.908000000000001</v>
+        <v>55.59</v>
       </c>
       <c r="I182">
-        <v>52.368039896373439</v>
+        <v>91.359180934326318</v>
       </c>
       <c r="J182">
-        <v>7.9523592213316991</v>
+        <v>4.1845654943770354</v>
       </c>
       <c r="K182">
-        <v>44.415680675041749</v>
-      </c>
-      <c r="L182">
-        <v>2.3612363731227082</v>
+        <v>87.174615439949278</v>
       </c>
       <c r="M182">
-        <v>0.35633718513044133</v>
+        <v>0.665781821149526</v>
       </c>
       <c r="N182">
-        <v>20.908000000000001</v>
+        <v>39.646000000000001</v>
+      </c>
+      <c r="O182">
+        <v>85.1</v>
       </c>
       <c r="P182">
-        <v>9.4979999999999993</v>
+        <v>8.1059999999999999</v>
       </c>
       <c r="Y182">
-        <v>5.2220001220703098</v>
+        <v>91.860000610351605</v>
       </c>
       <c r="Z182">
-        <v>23.301000595092798</v>
+        <v>2.1340000629425</v>
       </c>
       <c r="AA182">
-        <v>71.476997375488295</v>
+        <v>6.0060000419616699</v>
       </c>
       <c r="AB182">
-        <v>2.4300000000000002</v>
+        <v>5.5019999999999998</v>
       </c>
       <c r="AC182">
-        <v>349268114386.87543</v>
+        <v>3172416146.3921041</v>
       </c>
       <c r="AD182">
-        <v>1.4145126258505769</v>
+        <v>0.50000999877946128</v>
       </c>
       <c r="AF182">
-        <v>18.727439880371101</v>
-      </c>
-      <c r="AL182">
-        <v>26.29313910863015</v>
+        <v>20.401369094848601</v>
       </c>
       <c r="AM182">
-        <v>63.537999999999997</v>
+        <v>60.898000000000003</v>
       </c>
       <c r="AP182">
-        <v>54.427241471414249</v>
+        <v>29.22063049812207</v>
       </c>
       <c r="AQ182">
-        <v>1.04366339589233</v>
+        <v>1.8706521963616201</v>
       </c>
       <c r="AR182">
-        <v>155.23239570000001</v>
+        <v>54.683676089999999</v>
       </c>
       <c r="AS182">
-        <v>0.33833008577203144</v>
+        <v>0.31903271140690775</v>
       </c>
       <c r="AT182">
-        <v>29.1502598257042</v>
+        <v>45.555494083828599</v>
       </c>
       <c r="AU182">
-        <v>65.630561548097106</v>
+        <v>52.257745183600399</v>
       </c>
       <c r="AV182">
-        <v>5.2191786261986497</v>
+        <v>2.1867607325709901</v>
       </c>
       <c r="AW182">
-        <v>46.987817062213033</v>
+        <v>421.61308411214952</v>
       </c>
       <c r="AX182">
-        <v>1.4077407504275301</v>
+        <v>3.1813675239571402</v>
       </c>
       <c r="AY182">
-        <v>14.156365358789611</v>
+        <v>61.542347722802212</v>
       </c>
       <c r="AZ182">
-        <v>0.31570113050111104</v>
+        <v>0.63528267572837649</v>
       </c>
       <c r="BA182">
-        <v>28883601</v>
+        <v>5461521</v>
       </c>
       <c r="BB182">
-        <v>28116850</v>
+        <v>5365503</v>
       </c>
       <c r="BC182">
-        <v>57000451</v>
+        <v>10827024</v>
       </c>
       <c r="BG182">
-        <v>20.5</v>
-      </c>
-      <c r="BH182">
-        <v>6.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ182">
-        <v>34.150000000000013</v>
-      </c>
-      <c r="BK182">
-        <v>61.025589121835047</v>
+        <v>87.293999999999997</v>
       </c>
       <c r="BL182">
-        <v>1219090</v>
-      </c>
-      <c r="BM182">
-        <v>26.966066814489881</v>
+        <v>27830</v>
       </c>
       <c r="BN182">
-        <v>65.849999999999994</v>
+        <v>12.706</v>
       </c>
       <c r="BO182">
-        <v>2.1837113539144211</v>
+        <v>5.7160124223008628</v>
       </c>
     </row>
     <row r="183" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="B183" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="C183" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D183" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E183">
-        <v>25.3820705413818</v>
+        <v>33.730758666992202</v>
       </c>
       <c r="F183">
-        <v>21.3670703669465</v>
+        <v>19.984329208213602</v>
       </c>
       <c r="G183">
-        <v>42.120712280273402</v>
+        <v>69.556732177734403</v>
       </c>
       <c r="H183">
-        <v>62.04</v>
+        <v>92.725999999999999</v>
       </c>
       <c r="I183">
-        <v>83.394012190231066</v>
+        <v>60.911513793655288</v>
       </c>
       <c r="J183">
-        <v>6.2643103772275106</v>
+        <v>7.8406405032437547</v>
       </c>
       <c r="K183">
-        <v>77.129701813003564</v>
+        <v>53.070873290411527</v>
+      </c>
+      <c r="L183">
+        <v>6.1184080972353234</v>
       </c>
       <c r="M183">
-        <v>4.0092494468319337</v>
+        <v>0.21353171853530051</v>
       </c>
       <c r="N183">
-        <v>35.369999999999997</v>
+        <v>27.17</v>
       </c>
       <c r="P183">
-        <v>10.574</v>
+        <v>14.656000000000001</v>
       </c>
       <c r="Y183">
-        <v>48.935001373291001</v>
+        <v>67.147003173828097</v>
       </c>
       <c r="Z183">
-        <v>15.875</v>
+        <v>9.9329996109008807</v>
       </c>
       <c r="AA183">
-        <v>35.189998626708999</v>
+        <v>22.920000076293899</v>
       </c>
       <c r="AB183">
-        <v>4.7750000000000004</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="AC183">
-        <v>306</v>
+        <v>2578265355.7125502</v>
       </c>
       <c r="AD183">
-        <v>-5.2</v>
-      </c>
-      <c r="AF183">
-        <v>1.06623995304108</v>
+        <v>-2.286299106922868</v>
+      </c>
+      <c r="AL183">
+        <v>31.952605920518891</v>
       </c>
       <c r="AM183">
-        <v>57.365000000000002</v>
+        <v>52.947000000000003</v>
+      </c>
+      <c r="AP183">
+        <v>121.5933803343367</v>
       </c>
       <c r="AQ183">
-        <v>2.3528693671743302</v>
+        <v>2.0125976245417401</v>
       </c>
       <c r="AR183">
-        <v>25.56130126</v>
+        <v>113.8305187</v>
       </c>
       <c r="AS183">
-        <v>0.30986176473816157</v>
+        <v>0.46376839084841776</v>
       </c>
       <c r="AT183">
-        <v>42.0568295727806</v>
+        <v>32.981390692190502</v>
       </c>
       <c r="AU183">
-        <v>54.527405645233102</v>
+        <v>62.145965592718099</v>
       </c>
       <c r="AV183">
-        <v>3.4157647819863701</v>
+        <v>4.8726437150914101</v>
+      </c>
+      <c r="AW183">
+        <v>68.8870882740448</v>
       </c>
       <c r="AX183">
-        <v>0.71973842188859904</v>
-      </c>
-      <c r="AY183">
-        <v>16.687030242159949</v>
+        <v>0.78778003389368401</v>
       </c>
       <c r="AZ183">
-        <v>0.26653657540737186</v>
+        <v>0.52185072389693232</v>
       </c>
       <c r="BA183">
-        <v>5451274</v>
+        <v>1061309</v>
       </c>
       <c r="BB183">
-        <v>5459485</v>
+        <v>1030103</v>
       </c>
       <c r="BC183">
-        <v>10910759</v>
+        <v>2091412</v>
+      </c>
+      <c r="BF183">
+        <v>49.7</v>
       </c>
       <c r="BG183">
-        <v>2.5</v>
+        <v>24</v>
+      </c>
+      <c r="BH183">
+        <v>13.1</v>
       </c>
       <c r="BJ183">
-        <v>80.653999999999996</v>
+        <v>72.27</v>
+      </c>
+      <c r="BK183">
+        <v>52.523028442087337</v>
+      </c>
+      <c r="BL183">
+        <v>30360</v>
+      </c>
+      <c r="BM183">
+        <v>29.10837828014952</v>
       </c>
       <c r="BN183">
-        <v>19.346</v>
+        <v>27.73</v>
       </c>
       <c r="BO183">
-        <v>2.0413550584760252</v>
+        <v>2.2884261902300431</v>
       </c>
     </row>
     <row r="184" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B184" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D184" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -25778,16 +25868,16 @@
     </row>
     <row r="185" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C185" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D185" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E185">
         <v>97.544975280761705</v>
@@ -25924,16 +26014,16 @@
     </row>
     <row r="186" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C186" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D186" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E186">
         <v>100</v>
@@ -25977,16 +26067,16 @@
     </row>
     <row r="187" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B187" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D187" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E187">
         <v>56.451549530029297</v>
@@ -26105,16 +26195,16 @@
     </row>
     <row r="188" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B188" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C188" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D188" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E188">
         <v>96.783142089843807</v>
@@ -26233,16 +26323,16 @@
     </row>
     <row r="189" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B189" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C189" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D189" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E189">
         <v>100</v>
@@ -26367,16 +26457,16 @@
     </row>
     <row r="190" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C190" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D190" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E190">
         <v>100</v>
@@ -26501,16 +26591,16 @@
     </row>
     <row r="191" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B191" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C191" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D191" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E191">
         <v>89.638786315917997</v>
@@ -26611,16 +26701,16 @@
     </row>
     <row r="192" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B192" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C192" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D192" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E192">
         <v>99.3</v>
@@ -26763,153 +26853,174 @@
     </row>
     <row r="193" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="B193" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="C193" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D193" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E193">
-        <v>32.813331604003899</v>
+        <v>60.2</v>
       </c>
       <c r="F193">
-        <v>16.755115173361499</v>
+        <v>26.294944952198399</v>
       </c>
       <c r="G193">
-        <v>65.338348388671903</v>
+        <v>69.959999999999994</v>
       </c>
       <c r="H193">
-        <v>118.38500000000001</v>
+        <v>18.841000000000001</v>
       </c>
       <c r="I193">
-        <v>88.324306975762894</v>
+        <v>52.528580014346552</v>
       </c>
       <c r="J193">
-        <v>4.8656616025770134</v>
+        <v>6.7974874144538289</v>
       </c>
       <c r="K193">
-        <v>83.458645373185874</v>
+        <v>45.731092599892733</v>
       </c>
       <c r="L193">
-        <v>28.742086074120429</v>
+        <v>2.190564448579059</v>
       </c>
       <c r="M193">
-        <v>0.1103977837171785</v>
+        <v>3.1250676096357859</v>
       </c>
       <c r="N193">
-        <v>37.075000000000003</v>
+        <v>21.943999999999999</v>
       </c>
       <c r="P193">
-        <v>6.6219999999999999</v>
+        <v>7.2930000000000001</v>
       </c>
       <c r="Y193">
-        <v>66.924003601074205</v>
+        <v>50.405998229980497</v>
       </c>
       <c r="Z193">
-        <v>6.8579998016357404</v>
+        <v>8.0209999084472692</v>
       </c>
       <c r="AA193">
-        <v>26.218999862670898</v>
+        <v>41.573001861572301</v>
       </c>
       <c r="AB193">
-        <v>4.9530000000000003</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="AC193">
-        <v>53320625958.562813</v>
+        <v>1844674434.5037129</v>
       </c>
       <c r="AD193">
-        <v>6.7856801140519556</v>
+        <v>4.0902636277002671</v>
+      </c>
+      <c r="AE193">
+        <v>41.6</v>
+      </c>
+      <c r="AG193">
+        <v>21.5</v>
+      </c>
+      <c r="AH193">
+        <v>47.6</v>
+      </c>
+      <c r="AI193">
+        <v>5.4</v>
+      </c>
+      <c r="AJ193">
+        <v>10.4</v>
+      </c>
+      <c r="AK193">
+        <v>15.1</v>
       </c>
       <c r="AL193">
-        <v>25.099524995508339</v>
+        <v>15.514984379797591</v>
       </c>
       <c r="AM193">
-        <v>64.478999999999999</v>
+        <v>65.893000000000001</v>
       </c>
       <c r="AP193">
-        <v>25.680493718587019</v>
-      </c>
-      <c r="AQ193">
-        <v>1.1793767853612001</v>
+        <v>49.331198122492772</v>
       </c>
       <c r="AR193">
-        <v>73.094789989999995</v>
+        <v>39.514076379999999</v>
       </c>
       <c r="AS193">
-        <v>0.49069580048380884</v>
+        <v>0.18758918334497138</v>
       </c>
       <c r="AT193">
-        <v>44.3164485313565</v>
+        <v>29.9820251901548</v>
       </c>
       <c r="AU193">
-        <v>53.099890214731403</v>
+        <v>65.561450652950597</v>
       </c>
       <c r="AV193">
-        <v>2.5836612539120898</v>
+        <v>4.4565241568945604</v>
       </c>
       <c r="AW193">
-        <v>61.711341160532847</v>
+        <v>40.728947368421053</v>
       </c>
       <c r="AX193">
-        <v>2.9953881320120601</v>
+        <v>1.59996238151791</v>
       </c>
       <c r="AY193">
-        <v>31.655228527289118</v>
+        <v>75.211984634524299</v>
       </c>
       <c r="AZ193">
-        <v>0.84236472856719047</v>
+        <v>0.63799103726341855</v>
       </c>
       <c r="BA193">
-        <v>27367208</v>
+        <v>446702</v>
       </c>
       <c r="BB193">
-        <v>27296698</v>
+        <v>497395</v>
       </c>
       <c r="BC193">
-        <v>54663906</v>
+        <v>944097</v>
+      </c>
+      <c r="BD193">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="BE193">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BF193">
+        <v>21.1</v>
       </c>
       <c r="BG193">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="BH193">
-        <v>30.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="BJ193">
-        <v>66.947000000000003</v>
+        <v>22.352</v>
       </c>
       <c r="BK193">
-        <v>37.92261984320178</v>
+        <v>71.886721567944235</v>
       </c>
       <c r="BL193">
-        <v>947300</v>
-      </c>
-      <c r="BM193">
-        <v>11.826564971204499</v>
+        <v>23200</v>
       </c>
       <c r="BN193">
-        <v>33.052999999999997</v>
+        <v>77.647999999999996</v>
       </c>
       <c r="BO193">
-        <v>5.1977838804640424</v>
+        <v>1.754558927105252</v>
       </c>
     </row>
     <row r="194" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B194" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C194" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D194" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E194">
         <v>100</v>
@@ -27058,16 +27169,16 @@
     </row>
     <row r="195" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B195" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D195" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E195">
         <v>97.967590332031307</v>
@@ -27171,16 +27282,16 @@
     </row>
     <row r="196" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C196" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D196" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E196">
         <v>100</v>
@@ -27302,16 +27413,16 @@
     </row>
     <row r="197" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C197" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D197" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E197">
         <v>100</v>
@@ -27436,16 +27547,16 @@
     </row>
     <row r="198" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C198" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D198" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E198">
         <v>100</v>
@@ -27573,16 +27684,16 @@
     </row>
     <row r="199" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C199" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E199">
         <v>100</v>
@@ -27692,16 +27803,16 @@
     </row>
     <row r="200" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B200" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C200" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D200" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E200">
         <v>100</v>
@@ -27757,16 +27868,16 @@
     </row>
     <row r="201" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C201" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D201" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -27816,156 +27927,135 @@
     </row>
     <row r="202" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="B202" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C202" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D202" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E202">
-        <v>22</v>
+        <v>32.9465141296387</v>
       </c>
       <c r="F202">
-        <v>11.4294564360055</v>
+        <v>8.7189971006049092</v>
       </c>
       <c r="G202">
-        <v>57</v>
+        <v>63.296543121337898</v>
       </c>
       <c r="H202">
-        <v>118.836</v>
+        <v>100.08499999999999</v>
       </c>
       <c r="I202">
-        <v>97.006461243094719</v>
+        <v>98.438929893916495</v>
       </c>
       <c r="J202">
-        <v>3.7831255309247882</v>
+        <v>5.6628151683418686</v>
       </c>
       <c r="K202">
-        <v>93.223335712169927</v>
-      </c>
-      <c r="L202">
-        <v>24.580676980880739</v>
+        <v>92.776114725574615</v>
       </c>
       <c r="M202">
-        <v>0.29901606164775141</v>
+        <v>0.55575176680433569</v>
       </c>
       <c r="N202">
-        <v>38.947000000000003</v>
+        <v>41.918999999999997</v>
       </c>
       <c r="P202">
-        <v>6.7690000000000001</v>
+        <v>11.061999999999999</v>
       </c>
       <c r="Y202">
-        <v>71.069999694824205</v>
+        <v>72.483001708984403</v>
       </c>
       <c r="Z202">
-        <v>7.28200006484985</v>
+        <v>6.4239997863769496</v>
       </c>
       <c r="AA202">
-        <v>21.6480007171631</v>
+        <v>21.093000411987301</v>
       </c>
       <c r="AB202">
-        <v>5.0949999999999998</v>
+        <v>6.1680000000000001</v>
       </c>
       <c r="AC202">
-        <v>25995031850.154461</v>
+        <v>7052</v>
       </c>
       <c r="AD202">
-        <v>3.8630237568566059</v>
-      </c>
-      <c r="AF202">
-        <v>12.0088996887207</v>
-      </c>
-      <c r="AL202">
-        <v>20.33667087404476</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AM202">
-        <v>62.515999999999998</v>
-      </c>
-      <c r="AP202">
-        <v>32.687015153434047</v>
-      </c>
-      <c r="AQ202">
-        <v>1.2935933759192699</v>
+        <v>56.709000000000003</v>
       </c>
       <c r="AR202">
-        <v>60.60467775</v>
+        <v>48.796440160000003</v>
       </c>
       <c r="AS202">
-        <v>0.38457311651000053</v>
+        <v>0.35042119255449505</v>
       </c>
       <c r="AT202">
-        <v>47.319938198424403</v>
+        <v>46.752980411029299</v>
       </c>
       <c r="AU202">
-        <v>50.759756917430202</v>
+        <v>50.393336047216899</v>
       </c>
       <c r="AV202">
-        <v>1.92030488414537</v>
+        <v>2.85368354175379</v>
       </c>
       <c r="AW202">
-        <v>205.27860063834029</v>
+        <v>23.255521726655399</v>
       </c>
       <c r="AX202">
-        <v>3.74987516893954</v>
+        <v>2.8047694896515698</v>
       </c>
       <c r="AY202">
-        <v>29.777163806831659</v>
+        <v>30.524241166501142</v>
       </c>
       <c r="AZ202">
-        <v>0.48591556504834443</v>
+        <v>0.68483092389942612</v>
       </c>
       <c r="BA202">
-        <v>20916321</v>
+        <v>7313284</v>
       </c>
       <c r="BB202">
-        <v>20246144</v>
+        <v>7275835</v>
       </c>
       <c r="BC202">
-        <v>41162465</v>
+        <v>14589119</v>
       </c>
       <c r="BG202">
-        <v>5.9</v>
-      </c>
-      <c r="BH202">
-        <v>41</v>
+        <v>0.1</v>
       </c>
       <c r="BJ202">
-        <v>76.804000000000002</v>
-      </c>
-      <c r="BK202">
-        <v>47.112853699014813</v>
+        <v>55.609000000000002</v>
       </c>
       <c r="BL202">
-        <v>241550</v>
+        <v>637660</v>
       </c>
       <c r="BM202">
-        <v>13.730327297926101</v>
+        <v>1.0757417283722639E-4</v>
       </c>
       <c r="BN202">
-        <v>23.196000000000002</v>
+        <v>44.390999999999998</v>
       </c>
       <c r="BO202">
-        <v>6.2467245002382823</v>
+        <v>4.1085453027759344</v>
       </c>
     </row>
     <row r="203" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D203" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E203">
         <v>100</v>
@@ -28096,16 +28186,16 @@
     </row>
     <row r="204" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D204" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E204">
         <v>100</v>
@@ -28227,16 +28317,16 @@
     </row>
     <row r="205" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B205" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C205" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D205" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E205">
         <v>100</v>
@@ -28364,16 +28454,16 @@
     </row>
     <row r="206" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C206" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E206">
         <v>100</v>
@@ -28498,16 +28588,16 @@
     </row>
     <row r="207" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B207" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C207" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D207" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E207">
         <v>100</v>
@@ -28689,16 +28779,16 @@
     </row>
     <row r="208" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C208" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D208" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E208">
         <v>100</v>
@@ -28826,16 +28916,16 @@
     </row>
     <row r="209" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C209" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D209" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E209">
         <v>62.784294128417997</v>
@@ -28945,16 +29035,16 @@
     </row>
     <row r="210" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C210" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D210" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E210">
         <v>100</v>
@@ -29058,16 +29148,16 @@
     </row>
     <row r="211" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B211" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C211" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D211" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E211">
         <v>100</v>
@@ -29192,16 +29282,16 @@
     </row>
     <row r="212" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B212" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C212" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D212" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E212">
         <v>100</v>
@@ -29296,16 +29386,16 @@
     </row>
     <row r="213" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C213" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D213" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E213">
         <v>100</v>
@@ -29409,16 +29499,16 @@
     </row>
     <row r="214" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B214" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C214" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D214" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E214">
         <v>88.848638058656448</v>
@@ -29549,16 +29639,16 @@
     </row>
     <row r="215" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B215" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C215" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D215" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E215">
         <v>79.2</v>
@@ -29680,279 +29770,189 @@
     </row>
     <row r="216" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="B216" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="C216" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D216" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E216">
-        <v>40.299999999999997</v>
+        <v>48.423789978027301</v>
       </c>
       <c r="F216">
-        <v>13.9977011531986</v>
+        <v>30.1889287691791</v>
       </c>
       <c r="G216">
-        <v>75.2</v>
+        <v>76.504364013671903</v>
       </c>
       <c r="H216">
-        <v>120.11199999999999</v>
-      </c>
-      <c r="I216">
-        <v>90.462310784328466</v>
-      </c>
-      <c r="J216">
-        <v>3.9707730885582508</v>
-      </c>
-      <c r="K216">
-        <v>86.491537695770205</v>
-      </c>
-      <c r="L216">
-        <v>4.0242958082838776</v>
+        <v>52.552999999999997</v>
       </c>
       <c r="M216">
-        <v>0.2312131711739025</v>
+        <v>12.659219452582761</v>
       </c>
       <c r="N216">
-        <v>36.698999999999998</v>
+        <v>30.898</v>
       </c>
       <c r="P216">
-        <v>6.633</v>
+        <v>7.3259999999999996</v>
       </c>
       <c r="Y216">
-        <v>54.191001892089801</v>
+        <v>62.861000061035199</v>
       </c>
       <c r="Z216">
-        <v>10.635999679565399</v>
+        <v>8.2069997787475604</v>
       </c>
       <c r="AA216">
-        <v>35.173000335693402</v>
+        <v>28.931999206543001</v>
       </c>
       <c r="AB216">
-        <v>4.718</v>
+        <v>4.1120000000000001</v>
       </c>
       <c r="AC216">
-        <v>25868142076.789749</v>
+        <v>5813</v>
       </c>
       <c r="AD216">
-        <v>3.4031688511950482</v>
-      </c>
-      <c r="AL216">
-        <v>37.304177277241472</v>
+        <v>5</v>
       </c>
       <c r="AM216">
-        <v>63.042999999999999</v>
-      </c>
-      <c r="AP216">
-        <v>61.813484526772669</v>
-      </c>
-      <c r="AQ216">
-        <v>1.3051997513476199</v>
+        <v>65.537999999999997</v>
       </c>
       <c r="AR216">
-        <v>79.736909609999998</v>
+        <v>20.363955149999999</v>
       </c>
       <c r="AS216">
-        <v>2.6330315752420563E-2</v>
-      </c>
-      <c r="AT216">
-        <v>45.411368812085797</v>
-      </c>
-      <c r="AU216">
-        <v>52.5038242573589</v>
-      </c>
-      <c r="AV216">
-        <v>2.0848069305553101</v>
-      </c>
-      <c r="AW216">
-        <v>22.671394557365581</v>
-      </c>
-      <c r="AX216">
-        <v>2.9515832747826298</v>
-      </c>
-      <c r="AY216">
-        <v>33.221225725492928</v>
+        <v>0.22213895438908365</v>
       </c>
       <c r="AZ216">
-        <v>0.44646645973261911</v>
-      </c>
-      <c r="BA216">
-        <v>8510888</v>
-      </c>
-      <c r="BB216">
-        <v>8342800</v>
-      </c>
-      <c r="BC216">
-        <v>16853688</v>
+        <v>0.43332778558396967</v>
       </c>
       <c r="BG216">
-        <v>11.6</v>
-      </c>
-      <c r="BH216">
-        <v>46.7</v>
-      </c>
-      <c r="BJ216">
-        <v>57.024000000000001</v>
-      </c>
-      <c r="BK216">
-        <v>52.093836958826273</v>
+        <v>0.7</v>
       </c>
       <c r="BL216">
-        <v>752610</v>
-      </c>
-      <c r="BM216">
-        <v>15.184870619405499</v>
-      </c>
-      <c r="BN216">
-        <v>42.975999999999999</v>
-      </c>
-      <c r="BO216">
-        <v>4.2113486531420703</v>
+        <v>117600</v>
       </c>
     </row>
     <row r="217" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C217" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D217" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E217">
-        <v>40.4213676452637</v>
+        <v>25.3820705413818</v>
       </c>
       <c r="F217">
-        <v>18.934611314488301</v>
+        <v>21.3670703669465</v>
       </c>
       <c r="G217">
-        <v>85.587081909179702</v>
+        <v>42.120712280273402</v>
       </c>
       <c r="H217">
-        <v>86.135000000000005</v>
+        <v>62.04</v>
       </c>
       <c r="I217">
-        <v>83.466235010062022</v>
+        <v>83.394012190231066</v>
       </c>
       <c r="J217">
-        <v>5.3135283674782263</v>
+        <v>6.2643103772275106</v>
       </c>
       <c r="K217">
-        <v>78.152706642583794</v>
-      </c>
-      <c r="L217">
-        <v>9.6634278527178505</v>
+        <v>77.129701813003564</v>
       </c>
       <c r="M217">
-        <v>0.74819245505123799</v>
+        <v>4.0092494468319337</v>
       </c>
       <c r="N217">
-        <v>31.731999999999999</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="P217">
-        <v>8.0440000000000005</v>
+        <v>10.574</v>
       </c>
       <c r="Y217">
-        <v>67.072998046875</v>
+        <v>48.935001373291001</v>
       </c>
       <c r="Z217">
-        <v>7.2540001869201696</v>
+        <v>15.875</v>
       </c>
       <c r="AA217">
-        <v>25.673000335693398</v>
+        <v>35.189998626708999</v>
       </c>
       <c r="AB217">
-        <v>3.7069999999999999</v>
+        <v>4.7750000000000004</v>
       </c>
       <c r="AC217">
-        <v>22813010116.1292</v>
+        <v>306</v>
       </c>
       <c r="AD217">
-        <v>4.7040353483355943</v>
-      </c>
-      <c r="AL217">
-        <v>25.793332923371171</v>
+        <v>-5.2</v>
+      </c>
+      <c r="AF217">
+        <v>1.06623995304108</v>
       </c>
       <c r="AM217">
-        <v>60.811999999999998</v>
-      </c>
-      <c r="AP217">
-        <v>32.349961545768167</v>
+        <v>57.365000000000002</v>
       </c>
       <c r="AQ217">
-        <v>1.9301341465609001</v>
+        <v>2.3528693671743302</v>
       </c>
       <c r="AR217">
-        <v>98.985073330000006</v>
+        <v>25.56130126</v>
       </c>
       <c r="AS217">
-        <v>0.12527879183180629</v>
+        <v>0.30986176473816157</v>
       </c>
       <c r="AT217">
-        <v>42.597868380746903</v>
+        <v>42.0568295727806</v>
       </c>
       <c r="AU217">
-        <v>54.505940500519998</v>
+        <v>54.527405645233102</v>
       </c>
       <c r="AV217">
-        <v>2.8961911187331002</v>
-      </c>
-      <c r="AW217">
-        <v>36.801719012537163</v>
+        <v>3.4157647819863701</v>
       </c>
       <c r="AX217">
-        <v>1.46006070897861</v>
+        <v>0.71973842188859904</v>
       </c>
       <c r="AY217">
-        <v>32.89903756379509</v>
+        <v>16.687030242159949</v>
       </c>
       <c r="AZ217">
-        <v>0.45607549863052554</v>
+        <v>0.26653657540737186</v>
       </c>
       <c r="BA217">
-        <v>7459621</v>
+        <v>5451274</v>
       </c>
       <c r="BB217">
-        <v>6777124</v>
+        <v>5459485</v>
       </c>
       <c r="BC217">
-        <v>14236745</v>
-      </c>
-      <c r="BF217">
-        <v>70</v>
+        <v>10910759</v>
       </c>
       <c r="BG217">
-        <v>13.1</v>
-      </c>
-      <c r="BH217">
-        <v>51.3</v>
+        <v>2.5</v>
       </c>
       <c r="BJ217">
-        <v>67.763000000000005</v>
-      </c>
-      <c r="BK217">
-        <v>55.083397954590787</v>
-      </c>
-      <c r="BL217">
-        <v>390760</v>
-      </c>
-      <c r="BM217">
-        <v>15.79314989021414</v>
+        <v>80.653999999999996</v>
       </c>
       <c r="BN217">
-        <v>32.237000000000002</v>
+        <v>19.346</v>
       </c>
       <c r="BO217">
-        <v>1.277192471981105</v>
+        <v>2.0413550584760252</v>
       </c>
     </row>
   </sheetData>
@@ -29962,6 +29962,9 @@
         <filter val="Jazz"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:BO217">
+      <sortCondition descending="1" ref="AC1:AC217"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
